--- a/common/StoryScene_Chapter1.xlsx
+++ b/common/StoryScene_Chapter1.xlsx
@@ -27,17 +27,65 @@
 4=npc(填名字)</t>
   </si>
   <si>
-    <t>人物id</t>
+    <r>
+      <t xml:space="preserve">人物id
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关联Friend</t>
+    </r>
   </si>
   <si>
-    <t>人物名称</t>
+    <r>
+      <t xml:space="preserve">人物名称
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自定义NPC名称</t>
+    </r>
   </si>
   <si>
-    <t>人物立绘id</t>
+    <r>
+      <t xml:space="preserve">人物立绘id
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关联RolePortray</t>
+    </r>
   </si>
   <si>
-    <t>表情id
-0=无表情</t>
+    <r>
+      <t xml:space="preserve">表情id
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0=无表情
+关联RoleExpression</t>
+    </r>
   </si>
   <si>
     <t>景别
@@ -46,10 +94,41 @@
 3=近景</t>
   </si>
   <si>
-    <t>对话内容</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">对话内容
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关联StoryDialog_Chapter</t>
+    </r>
   </si>
   <si>
-    <t>场景id</t>
+    <r>
+      <t xml:space="preserve">场景id
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关联Scene</t>
+    </r>
   </si>
   <si>
     <t>天气效果类型</t>
@@ -356,9 +435,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -383,8 +462,130 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,128 +600,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -568,31 +647,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,108 +803,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -713,24 +810,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,54 +863,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -843,15 +874,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,6 +895,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -881,6 +936,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -889,10 +968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -901,133 +980,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1398,7 +1477,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1408,9 +1487,9 @@
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>

--- a/common/StoryScene_Chapter1.xlsx
+++ b/common/StoryScene_Chapter1.xlsx
@@ -14,17 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>对话类型
+    <t xml:space="preserve">对话类型
 0=旁边
-1=选项
-2=主角(我)
-3=知交(填id)
-4=npc(填名字)</t>
+1=选项标题
+2=选项
+3=主角(我)
+4=知交(填id)
+5=npc(填名字)
+</t>
   </si>
   <si>
     <r>
@@ -95,13 +97,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">对话内容
 </t>
     </r>
@@ -135,13 +130,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>id</t>
     </r>
     <r>
@@ -167,13 +155,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>type</t>
     </r>
     <r>
@@ -199,13 +180,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>role_id</t>
     </r>
     <r>
@@ -231,13 +205,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>role_name</t>
     </r>
     <r>
@@ -263,13 +230,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>portray</t>
     </r>
     <r>
@@ -295,13 +255,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">expression </t>
     </r>
     <r>
@@ -318,13 +271,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">camera </t>
     </r>
     <r>
@@ -341,13 +287,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>dialog</t>
     </r>
     <r>
@@ -372,46 +311,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>context_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
+    <t>context_id int</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">weather </t>
     </r>
     <r>
@@ -427,7 +330,34 @@
     </r>
   </si>
   <si>
-    <t>1001,1002</t>
+    <t>沈氏</t>
+  </si>
+  <si>
+    <t>主角</t>
+  </si>
+  <si>
+    <t>王氏</t>
+  </si>
+  <si>
+    <t>钱万三</t>
+  </si>
+  <si>
+    <t>方妈妈</t>
+  </si>
+  <si>
+    <t>仆役</t>
+  </si>
+  <si>
+    <t>大伯母</t>
+  </si>
+  <si>
+    <t>主角幼年</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1002</t>
   </si>
 </sst>
 </file>
@@ -435,12 +365,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,12 +392,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -478,26 +411,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,23 +457,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,8 +485,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,46 +525,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -620,7 +561,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,7 +582,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF48A088"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,13 +684,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,49 +720,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,103 +762,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,6 +811,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -878,17 +851,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,37 +893,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,10 +915,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,137 +927,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1135,14 +1082,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1474,10 +1442,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1495,7 +1463,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="90.75" spans="1:10">
+    <row r="1" ht="120.75" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +1491,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1555,7 +1523,7 @@
       <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1563,7 +1531,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="1">
@@ -1578,14 +1546,14 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="7">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1">
-        <v>6</v>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="16">
+        <v>12</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -1595,29 +1563,29 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>3</v>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1003</v>
-      </c>
-      <c r="I4" s="1">
-        <v>6</v>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="16">
+        <v>12</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -1627,8 +1595,8 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
+      <c r="B5" s="1">
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1636,20 +1604,20 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1004</v>
-      </c>
-      <c r="I5" s="1">
-        <v>6</v>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="16">
+        <v>12</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1659,29 +1627,29 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
-        <v>3</v>
+      <c r="B6" s="1">
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1005</v>
-      </c>
-      <c r="I6" s="1">
-        <v>6</v>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="16">
+        <v>12</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1691,29 +1659,29 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
         <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1006</v>
-      </c>
-      <c r="I7" s="1">
-        <v>6</v>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="16">
+        <v>12</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1723,8 +1691,8 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
-        <v>2</v>
+      <c r="B8" s="1">
+        <v>0</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1733,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1741,11 +1709,11 @@
       <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="2">
-        <v>1007</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H8" s="1">
         <v>6</v>
+      </c>
+      <c r="I8" s="16">
+        <v>9</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1755,17 +1723,17 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
-        <v>3</v>
+      <c r="B9" s="1">
+        <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1773,11 +1741,11 @@
       <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="H9" s="2">
-        <v>1008</v>
-      </c>
-      <c r="I9" s="1">
-        <v>6</v>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="16">
+        <v>9</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1787,17 +1755,17 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
+      <c r="B10" s="1">
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1805,11 +1773,11 @@
       <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="2">
-        <v>1009</v>
-      </c>
-      <c r="I10" s="1">
-        <v>6</v>
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="16">
+        <v>9</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1819,17 +1787,17 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
-        <v>2</v>
+      <c r="B11" s="1">
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4</v>
+      <c r="D11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1837,11 +1805,11 @@
       <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="2">
-        <v>1010</v>
-      </c>
-      <c r="I11" s="1">
-        <v>6</v>
+      <c r="H11" s="1">
+        <v>9</v>
+      </c>
+      <c r="I11" s="16">
+        <v>9</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1851,17 +1819,17 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
-        <v>3</v>
+      <c r="B12" s="1">
+        <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1869,11 +1837,11 @@
       <c r="G12" s="1">
         <v>2</v>
       </c>
-      <c r="H12" s="2">
-        <v>1011</v>
-      </c>
-      <c r="I12" s="1">
-        <v>6</v>
+      <c r="H12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12" s="16">
+        <v>9</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1883,8 +1851,8 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
-        <v>2</v>
+      <c r="B13" s="1">
+        <v>0</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1893,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1901,11 +1869,11 @@
       <c r="G13" s="1">
         <v>2</v>
       </c>
-      <c r="H13" s="2">
-        <v>1012</v>
-      </c>
-      <c r="I13" s="1">
-        <v>6</v>
+      <c r="H13" s="1">
+        <v>11</v>
+      </c>
+      <c r="I13" s="16">
+        <v>9</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1915,7 +1883,7 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="1">
         <v>0</v>
       </c>
       <c r="C14" s="1">
@@ -1933,11 +1901,11 @@
       <c r="G14" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="2">
-        <v>1013</v>
-      </c>
-      <c r="I14" s="1">
-        <v>6</v>
+      <c r="H14" s="1">
+        <v>12</v>
+      </c>
+      <c r="I14" s="16">
+        <v>9</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -1947,8 +1915,8 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="7">
-        <v>2</v>
+      <c r="B15" s="1">
+        <v>0</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1957,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1965,11 +1933,11 @@
       <c r="G15" s="1">
         <v>2</v>
       </c>
-      <c r="H15" s="2">
-        <v>1014</v>
-      </c>
-      <c r="I15" s="1">
-        <v>6</v>
+      <c r="H15" s="1">
+        <v>13</v>
+      </c>
+      <c r="I15" s="16">
+        <v>9</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -1979,17 +1947,17 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="7">
-        <v>3</v>
+      <c r="B16" s="1">
+        <v>5</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1997,11 +1965,11 @@
       <c r="G16" s="1">
         <v>2</v>
       </c>
-      <c r="H16" s="2">
-        <v>1015</v>
-      </c>
-      <c r="I16" s="1">
-        <v>6</v>
+      <c r="H16" s="1">
+        <v>14</v>
+      </c>
+      <c r="I16" s="16">
+        <v>9</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -2011,17 +1979,17 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="7">
-        <v>3</v>
+      <c r="B17" s="1">
+        <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2029,11 +1997,11 @@
       <c r="G17" s="1">
         <v>2</v>
       </c>
-      <c r="H17" s="2">
-        <v>1016</v>
-      </c>
-      <c r="I17" s="1">
-        <v>6</v>
+      <c r="H17" s="1">
+        <v>15</v>
+      </c>
+      <c r="I17" s="16">
+        <v>9</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -2043,17 +2011,17 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="7">
-        <v>2</v>
+      <c r="B18" s="1">
+        <v>5</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>4</v>
+      <c r="D18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2061,11 +2029,11 @@
       <c r="G18" s="1">
         <v>2</v>
       </c>
-      <c r="H18" s="2">
-        <v>1017</v>
-      </c>
-      <c r="I18" s="1">
-        <v>6</v>
+      <c r="H18" s="1">
+        <v>16</v>
+      </c>
+      <c r="I18" s="16">
+        <v>9</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -2075,8 +2043,8 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="7">
-        <v>2</v>
+      <c r="B19" s="9">
+        <v>1</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -2085,71 +2053,1943 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>17</v>
+      </c>
+      <c r="I19" s="16">
+        <v>9</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>18</v>
+      </c>
+      <c r="I20" s="16">
+        <v>9</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>19</v>
+      </c>
+      <c r="I21" s="16">
+        <v>9</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>20</v>
+      </c>
+      <c r="I22" s="16">
+        <v>9</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>21</v>
+      </c>
+      <c r="I23" s="16">
+        <v>9</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>22</v>
+      </c>
+      <c r="I24" s="16">
+        <v>9</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>23</v>
+      </c>
+      <c r="I25" s="16">
+        <v>9</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>24</v>
+      </c>
+      <c r="I26" s="16">
+        <v>9</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>25</v>
+      </c>
+      <c r="I27" s="17">
+        <v>10</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>26</v>
+      </c>
+      <c r="I28" s="17">
+        <v>10</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>27</v>
+      </c>
+      <c r="I29" s="17">
+        <v>10</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="10">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>28</v>
+      </c>
+      <c r="I30" s="17">
+        <v>10</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="12">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>29</v>
+      </c>
+      <c r="I31" s="16">
+        <v>13</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>30</v>
+      </c>
+      <c r="I32" s="16">
+        <v>8</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1">
+        <v>31</v>
+      </c>
+      <c r="I33" s="16">
+        <v>8</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1">
+        <v>32</v>
+      </c>
+      <c r="I34" s="16">
+        <v>8</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>33</v>
+      </c>
+      <c r="I35" s="16">
+        <v>13</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>34</v>
+      </c>
+      <c r="I36" s="1">
+        <v>8</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>35</v>
+      </c>
+      <c r="I37" s="16">
+        <v>13</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>36</v>
+      </c>
+      <c r="I38" s="1">
+        <v>14</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1">
+        <v>37</v>
+      </c>
+      <c r="I39" s="1">
+        <v>8</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>38</v>
+      </c>
+      <c r="I40" s="1">
+        <v>8</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2</v>
+      </c>
+      <c r="H41" s="1">
+        <v>39</v>
+      </c>
+      <c r="I41" s="1">
+        <v>8</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>40</v>
+      </c>
+      <c r="I42" s="16">
+        <v>11</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>41</v>
+      </c>
+      <c r="I43" s="16">
+        <v>11</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>42</v>
+      </c>
+      <c r="I44" s="16">
+        <v>11</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>43</v>
+      </c>
+      <c r="I45" s="16">
+        <v>11</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>44</v>
+      </c>
+      <c r="I46" s="16">
+        <v>11</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="7">
+        <v>3</v>
+      </c>
+      <c r="H47" s="1">
+        <v>45</v>
+      </c>
+      <c r="I47" s="16">
+        <v>11</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>46</v>
+      </c>
+      <c r="I48" s="1">
+        <v>15</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2</v>
+      </c>
+      <c r="H49" s="1">
+        <v>47</v>
+      </c>
+      <c r="I49" s="17">
+        <v>10</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2</v>
+      </c>
+      <c r="H50" s="1">
+        <v>48</v>
+      </c>
+      <c r="I50" s="17">
+        <v>10</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2</v>
+      </c>
+      <c r="H51" s="1">
+        <v>49</v>
+      </c>
+      <c r="I51" s="17">
+        <v>10</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2</v>
+      </c>
+      <c r="H52" s="1">
+        <v>50</v>
+      </c>
+      <c r="I52" s="17">
+        <v>10</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2</v>
+      </c>
+      <c r="H53" s="1">
+        <v>51</v>
+      </c>
+      <c r="I53" s="17">
+        <v>10</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2</v>
+      </c>
+      <c r="H54" s="1">
+        <v>52</v>
+      </c>
+      <c r="I54" s="17">
+        <v>10</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2</v>
+      </c>
+      <c r="H55" s="1">
+        <v>53</v>
+      </c>
+      <c r="I55" s="17">
+        <v>10</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2</v>
+      </c>
+      <c r="H56" s="1">
+        <v>54</v>
+      </c>
+      <c r="I56" s="17">
+        <v>10</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>55</v>
+      </c>
+      <c r="I57" s="17">
+        <v>10</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>56</v>
+      </c>
+      <c r="I58" s="17">
+        <v>10</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2</v>
+      </c>
+      <c r="H59" s="1">
+        <v>57</v>
+      </c>
+      <c r="I59" s="17">
+        <v>10</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>2</v>
+      </c>
+      <c r="H60" s="1">
+        <v>58</v>
+      </c>
+      <c r="I60" s="17">
+        <v>10</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>2</v>
+      </c>
+      <c r="H61" s="1">
+        <v>59</v>
+      </c>
+      <c r="I61" s="17">
+        <v>10</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="8">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" s="16">
+        <v>7</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="8">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63" s="16">
+        <v>7</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="8">
         <v>4</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1003</v>
+      </c>
+      <c r="I64" s="16">
+        <v>7</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="8">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>2</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1004</v>
+      </c>
+      <c r="I65" s="16">
+        <v>7</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="8">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>3</v>
+      </c>
+      <c r="H66" s="2">
+        <v>1005</v>
+      </c>
+      <c r="I66" s="16">
+        <v>7</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="8">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2">
+        <v>1006</v>
+      </c>
+      <c r="I67" s="16">
+        <v>7</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="8">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>4</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>2</v>
+      </c>
+      <c r="H68" s="2">
+        <v>1007</v>
+      </c>
+      <c r="I68" s="16">
+        <v>7</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="8">
+        <v>4</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2</v>
+      </c>
+      <c r="H69" s="2">
+        <v>1008</v>
+      </c>
+      <c r="I69" s="16">
+        <v>7</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="8">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>2</v>
+      </c>
+      <c r="H70" s="2">
+        <v>1009</v>
+      </c>
+      <c r="I70" s="16">
+        <v>7</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="8">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>4</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>2</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1010</v>
+      </c>
+      <c r="I71" s="16">
+        <v>7</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="8">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>2</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1011</v>
+      </c>
+      <c r="I72" s="16">
+        <v>7</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="8">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>4</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>2</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1012</v>
+      </c>
+      <c r="I73" s="16">
+        <v>7</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="8">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>2</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1013</v>
+      </c>
+      <c r="I74" s="16">
+        <v>7</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="8">
+        <v>3</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>4</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>2</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1014</v>
+      </c>
+      <c r="I75" s="16">
+        <v>7</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="8">
+        <v>4</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>2</v>
+      </c>
+      <c r="H76" s="2">
+        <v>1015</v>
+      </c>
+      <c r="I76" s="16">
+        <v>7</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="8">
+        <v>4</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>2</v>
+      </c>
+      <c r="H77" s="2">
+        <v>1016</v>
+      </c>
+      <c r="I77" s="16">
+        <v>7</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="8">
+        <v>3</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>4</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>2</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1017</v>
+      </c>
+      <c r="I78" s="16">
+        <v>7</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="8">
+        <v>3</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>4</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>2</v>
+      </c>
+      <c r="H79" s="2">
         <v>1018</v>
       </c>
-      <c r="I19" s="1">
-        <v>6</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="8"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="8"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="8"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="8"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="8"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="8"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="8"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="8"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="8"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="8"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="I79" s="16">
+        <v>7</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/common/StoryScene_Chapter1.xlsx
+++ b/common/StoryScene_Chapter1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>序号</t>
   </si>
@@ -30,6 +30,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">人物id
 </t>
     </r>
@@ -45,6 +52,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">人物名称
 </t>
     </r>
@@ -60,6 +74,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">人物立绘id
 </t>
     </r>
@@ -75,6 +96,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">表情id
 </t>
     </r>
@@ -97,6 +125,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">对话内容
 </t>
     </r>
@@ -112,6 +147,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">场景id
 </t>
     </r>
@@ -130,6 +172,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>id</t>
     </r>
     <r>
@@ -155,6 +204,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>type</t>
     </r>
     <r>
@@ -180,6 +236,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>role_id</t>
     </r>
     <r>
@@ -205,6 +268,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>role_name</t>
     </r>
     <r>
@@ -230,6 +300,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>portray</t>
     </r>
     <r>
@@ -255,6 +332,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">expression </t>
     </r>
     <r>
@@ -271,6 +355,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">camera </t>
     </r>
     <r>
@@ -287,6 +378,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>dialog</t>
     </r>
     <r>
@@ -315,6 +413,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">weather </t>
     </r>
     <r>
@@ -333,9 +438,6 @@
     <t>沈氏</t>
   </si>
   <si>
-    <t>主角</t>
-  </si>
-  <si>
     <t>王氏</t>
   </si>
   <si>
@@ -351,9 +453,6 @@
     <t>大伯母</t>
   </si>
   <si>
-    <t>主角幼年</t>
-  </si>
-  <si>
     <t>1001</t>
   </si>
   <si>
@@ -367,8 +466,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -403,46 +502,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,29 +540,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,30 +548,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,18 +563,79 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -594,19 +693,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,55 +753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,7 +765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +783,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,25 +825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,37 +843,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,27 +909,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -851,29 +942,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,17 +972,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,10 +1014,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -927,137 +1026,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,9 +1181,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1105,12 +1201,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1444,8 +1534,8 @@
   <sheetPr/>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1491,7 +1581,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1523,7 +1613,7 @@
       <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1552,7 +1642,7 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="7">
         <v>12</v>
       </c>
       <c r="J3" s="1">
@@ -1569,11 +1659,11 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>20</v>
+      <c r="E4" s="7">
+        <v>24</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1584,7 +1674,7 @@
       <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="7">
         <v>12</v>
       </c>
       <c r="J4" s="1">
@@ -1604,8 +1694,8 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
+      <c r="E5" s="1">
+        <v>26</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1616,7 +1706,7 @@
       <c r="H5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="7">
         <v>12</v>
       </c>
       <c r="J5" s="1">
@@ -1648,7 +1738,7 @@
       <c r="H6" s="1">
         <v>4</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="7">
         <v>12</v>
       </c>
       <c r="J6" s="1">
@@ -1680,7 +1770,7 @@
       <c r="H7" s="1">
         <v>5</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="7">
         <v>12</v>
       </c>
       <c r="J7" s="1">
@@ -1712,7 +1802,7 @@
       <c r="H8" s="1">
         <v>6</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="7">
         <v>9</v>
       </c>
       <c r="J8" s="1">
@@ -1729,11 +1819,11 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>20</v>
+      <c r="E9" s="7">
+        <v>24</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1744,7 +1834,7 @@
       <c r="H9" s="1">
         <v>7</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="7">
         <v>9</v>
       </c>
       <c r="J9" s="1">
@@ -1761,11 +1851,11 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>20</v>
+      <c r="E10" s="7">
+        <v>24</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1776,7 +1866,7 @@
       <c r="H10" s="1">
         <v>8</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="7">
         <v>9</v>
       </c>
       <c r="J10" s="1">
@@ -1793,11 +1883,11 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>20</v>
+      <c r="E11" s="7">
+        <v>24</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1808,7 +1898,7 @@
       <c r="H11" s="1">
         <v>9</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="7">
         <v>9</v>
       </c>
       <c r="J11" s="1">
@@ -1825,11 +1915,11 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>20</v>
+      <c r="E12" s="7">
+        <v>24</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1840,7 +1930,7 @@
       <c r="H12" s="1">
         <v>10</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="7">
         <v>9</v>
       </c>
       <c r="J12" s="1">
@@ -1872,7 +1962,7 @@
       <c r="H13" s="1">
         <v>11</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="7">
         <v>9</v>
       </c>
       <c r="J13" s="1">
@@ -1904,7 +1994,7 @@
       <c r="H14" s="1">
         <v>12</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="7">
         <v>9</v>
       </c>
       <c r="J14" s="1">
@@ -1936,7 +2026,7 @@
       <c r="H15" s="1">
         <v>13</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="7">
         <v>9</v>
       </c>
       <c r="J15" s="1">
@@ -1953,11 +2043,11 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>22</v>
+      <c r="D16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="7">
+        <v>15</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1968,7 +2058,7 @@
       <c r="H16" s="1">
         <v>14</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="7">
         <v>9</v>
       </c>
       <c r="J16" s="1">
@@ -2000,7 +2090,7 @@
       <c r="H17" s="1">
         <v>15</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="7">
         <v>9</v>
       </c>
       <c r="J17" s="1">
@@ -2017,11 +2107,11 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>23</v>
+      <c r="D18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="7">
+        <v>19</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2032,7 +2122,7 @@
       <c r="H18" s="1">
         <v>16</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="7">
         <v>9</v>
       </c>
       <c r="J18" s="1">
@@ -2043,7 +2133,7 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>1</v>
       </c>
       <c r="C19" s="1">
@@ -2064,7 +2154,7 @@
       <c r="H19" s="1">
         <v>17</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="7">
         <v>9</v>
       </c>
       <c r="J19" s="1">
@@ -2075,7 +2165,7 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>2</v>
       </c>
       <c r="C20" s="1">
@@ -2096,7 +2186,7 @@
       <c r="H20" s="1">
         <v>18</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="7">
         <v>9</v>
       </c>
       <c r="J20" s="1">
@@ -2128,7 +2218,7 @@
       <c r="H21" s="1">
         <v>19</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="7">
         <v>9</v>
       </c>
       <c r="J21" s="1">
@@ -2160,7 +2250,7 @@
       <c r="H22" s="1">
         <v>20</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="7">
         <v>9</v>
       </c>
       <c r="J22" s="1">
@@ -2192,7 +2282,7 @@
       <c r="H23" s="1">
         <v>21</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="7">
         <v>9</v>
       </c>
       <c r="J23" s="1">
@@ -2203,7 +2293,7 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>2</v>
       </c>
       <c r="C24" s="1">
@@ -2224,7 +2314,7 @@
       <c r="H24" s="1">
         <v>22</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="7">
         <v>9</v>
       </c>
       <c r="J24" s="1">
@@ -2256,7 +2346,7 @@
       <c r="H25" s="1">
         <v>23</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="7">
         <v>9</v>
       </c>
       <c r="J25" s="1">
@@ -2288,7 +2378,7 @@
       <c r="H26" s="1">
         <v>24</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="7">
         <v>9</v>
       </c>
       <c r="J26" s="1">
@@ -2320,7 +2410,7 @@
       <c r="H27" s="1">
         <v>25</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="7">
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -2337,11 +2427,11 @@
       <c r="C28" s="1">
         <v>0</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>20</v>
+      <c r="E28" s="7">
+        <v>24</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -2352,7 +2442,7 @@
       <c r="H28" s="1">
         <v>26</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="7">
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -2363,13 +2453,13 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>1</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <v>0</v>
       </c>
       <c r="E29" s="1">
@@ -2384,7 +2474,7 @@
       <c r="H29" s="1">
         <v>27</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="7">
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -2395,13 +2485,13 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>2</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <v>0</v>
       </c>
       <c r="E30" s="1">
@@ -2416,7 +2506,7 @@
       <c r="H30" s="1">
         <v>28</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="7">
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -2427,13 +2517,13 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>0</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <v>0</v>
       </c>
       <c r="E31" s="1">
@@ -2448,7 +2538,7 @@
       <c r="H31" s="1">
         <v>29</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="7">
         <v>13</v>
       </c>
       <c r="J31" s="1">
@@ -2465,11 +2555,11 @@
       <c r="C32" s="1">
         <v>0</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>20</v>
+      <c r="E32" s="7">
+        <v>24</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -2480,7 +2570,7 @@
       <c r="H32" s="1">
         <v>30</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="7">
         <v>8</v>
       </c>
       <c r="J32" s="1">
@@ -2497,11 +2587,11 @@
       <c r="C33" s="1">
         <v>0</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>22</v>
+      <c r="D33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="7">
+        <v>15</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -2512,7 +2602,7 @@
       <c r="H33" s="1">
         <v>31</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I33" s="7">
         <v>8</v>
       </c>
       <c r="J33" s="1">
@@ -2529,11 +2619,11 @@
       <c r="C34" s="1">
         <v>0</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>20</v>
+      <c r="E34" s="7">
+        <v>24</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -2544,7 +2634,7 @@
       <c r="H34" s="1">
         <v>32</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="7">
         <v>8</v>
       </c>
       <c r="J34" s="1">
@@ -2561,7 +2651,7 @@
       <c r="C35" s="1">
         <v>0</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="10">
         <v>0</v>
       </c>
       <c r="E35" s="1">
@@ -2576,7 +2666,7 @@
       <c r="H35" s="1">
         <v>33</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="7">
         <v>13</v>
       </c>
       <c r="J35" s="1">
@@ -2593,11 +2683,11 @@
       <c r="C36" s="1">
         <v>0</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>24</v>
+      <c r="D36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="1">
+        <v>14</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -2625,7 +2715,7 @@
       <c r="C37" s="1">
         <v>0</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="10">
         <v>0</v>
       </c>
       <c r="E37" s="1">
@@ -2640,7 +2730,7 @@
       <c r="H37" s="1">
         <v>35</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="7">
         <v>13</v>
       </c>
       <c r="J37" s="1">
@@ -2657,7 +2747,7 @@
       <c r="C38" s="1">
         <v>0</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="10">
         <v>0</v>
       </c>
       <c r="E38" s="1">
@@ -2689,11 +2779,11 @@
       <c r="C39" s="1">
         <v>0</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>25</v>
+      <c r="D39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="7">
+        <v>2</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -2721,11 +2811,11 @@
       <c r="C40" s="1">
         <v>0</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>26</v>
+      <c r="D40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="7">
+        <v>16</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -2753,11 +2843,11 @@
       <c r="C41" s="1">
         <v>0</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>22</v>
+      <c r="D41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="7">
+        <v>15</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -2800,7 +2890,7 @@
       <c r="H42" s="1">
         <v>40</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I42" s="7">
         <v>11</v>
       </c>
       <c r="J42" s="1">
@@ -2817,11 +2907,11 @@
       <c r="C43" s="1">
         <v>0</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>24</v>
+      <c r="D43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="1">
+        <v>14</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -2832,7 +2922,7 @@
       <c r="H43" s="1">
         <v>41</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I43" s="7">
         <v>11</v>
       </c>
       <c r="J43" s="1">
@@ -2852,8 +2942,8 @@
       <c r="D44" s="1">
         <v>0</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>27</v>
+      <c r="E44" s="1">
+        <v>26</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -2864,7 +2954,7 @@
       <c r="H44" s="1">
         <v>42</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I44" s="7">
         <v>11</v>
       </c>
       <c r="J44" s="1">
@@ -2881,11 +2971,11 @@
       <c r="C45" s="1">
         <v>0</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>24</v>
+      <c r="D45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="1">
+        <v>14</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -2896,7 +2986,7 @@
       <c r="H45" s="1">
         <v>43</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I45" s="7">
         <v>11</v>
       </c>
       <c r="J45" s="1">
@@ -2913,11 +3003,11 @@
       <c r="C46" s="1">
         <v>0</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>24</v>
+      <c r="D46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="1">
+        <v>14</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -2928,7 +3018,7 @@
       <c r="H46" s="1">
         <v>44</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I46" s="7">
         <v>11</v>
       </c>
       <c r="J46" s="1">
@@ -2945,11 +3035,11 @@
       <c r="C47" s="1">
         <v>0</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>24</v>
+      <c r="D47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="1">
+        <v>14</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -2960,7 +3050,7 @@
       <c r="H47" s="1">
         <v>45</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I47" s="7">
         <v>11</v>
       </c>
       <c r="J47" s="1">
@@ -3024,7 +3114,7 @@
       <c r="H49" s="1">
         <v>47</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="7">
         <v>10</v>
       </c>
       <c r="J49" s="1">
@@ -3056,7 +3146,7 @@
       <c r="H50" s="1">
         <v>48</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="7">
         <v>10</v>
       </c>
       <c r="J50" s="1">
@@ -3076,8 +3166,8 @@
       <c r="D51" s="1">
         <v>0</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>27</v>
+      <c r="E51" s="1">
+        <v>26</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -3088,7 +3178,7 @@
       <c r="H51" s="1">
         <v>49</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="7">
         <v>10</v>
       </c>
       <c r="J51" s="1">
@@ -3120,7 +3210,7 @@
       <c r="H52" s="1">
         <v>50</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="7">
         <v>10</v>
       </c>
       <c r="J52" s="1">
@@ -3137,11 +3227,11 @@
       <c r="C53" s="1">
         <v>0</v>
       </c>
-      <c r="D53" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>24</v>
+      <c r="D53" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="1">
+        <v>14</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -3152,7 +3242,7 @@
       <c r="H53" s="1">
         <v>51</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="7">
         <v>10</v>
       </c>
       <c r="J53" s="1">
@@ -3169,11 +3259,11 @@
       <c r="C54" s="1">
         <v>0</v>
       </c>
-      <c r="D54" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>24</v>
+      <c r="D54" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="1">
+        <v>14</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -3184,7 +3274,7 @@
       <c r="H54" s="1">
         <v>52</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="7">
         <v>10</v>
       </c>
       <c r="J54" s="1">
@@ -3204,8 +3294,8 @@
       <c r="D55" s="1">
         <v>0</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>27</v>
+      <c r="E55" s="1">
+        <v>26</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -3216,7 +3306,7 @@
       <c r="H55" s="1">
         <v>53</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="7">
         <v>10</v>
       </c>
       <c r="J55" s="1">
@@ -3233,11 +3323,11 @@
       <c r="C56" s="1">
         <v>0</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>24</v>
+      <c r="D56" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="1">
+        <v>14</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3248,7 +3338,7 @@
       <c r="H56" s="1">
         <v>54</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="7">
         <v>10</v>
       </c>
       <c r="J56" s="1">
@@ -3280,7 +3370,7 @@
       <c r="H57" s="1">
         <v>55</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="7">
         <v>10</v>
       </c>
       <c r="J57" s="1">
@@ -3300,8 +3390,8 @@
       <c r="D58" s="1">
         <v>0</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>27</v>
+      <c r="E58" s="1">
+        <v>26</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -3312,7 +3402,7 @@
       <c r="H58" s="1">
         <v>56</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="7">
         <v>10</v>
       </c>
       <c r="J58" s="1">
@@ -3344,7 +3434,7 @@
       <c r="H59" s="1">
         <v>57</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="7">
         <v>10</v>
       </c>
       <c r="J59" s="1">
@@ -3376,7 +3466,7 @@
       <c r="H60" s="1">
         <v>58</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="7">
         <v>10</v>
       </c>
       <c r="J60" s="1">
@@ -3408,7 +3498,7 @@
       <c r="H61" s="1">
         <v>59</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I61" s="7">
         <v>10</v>
       </c>
       <c r="J61" s="1">
@@ -3419,7 +3509,7 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="7">
         <v>0</v>
       </c>
       <c r="C62" s="1">
@@ -3438,9 +3528,9 @@
         <v>1</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I62" s="16">
+        <v>26</v>
+      </c>
+      <c r="I62" s="7">
         <v>7</v>
       </c>
       <c r="J62" s="1">
@@ -3451,7 +3541,7 @@
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="7">
         <v>0</v>
       </c>
       <c r="C63" s="1">
@@ -3470,9 +3560,9 @@
         <v>1</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I63" s="16">
+        <v>27</v>
+      </c>
+      <c r="I63" s="7">
         <v>7</v>
       </c>
       <c r="J63" s="1">
@@ -3483,7 +3573,7 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>4</v>
       </c>
       <c r="C64" s="1">
@@ -3504,7 +3594,7 @@
       <c r="H64" s="2">
         <v>1003</v>
       </c>
-      <c r="I64" s="16">
+      <c r="I64" s="7">
         <v>7</v>
       </c>
       <c r="J64" s="1">
@@ -3515,7 +3605,7 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="7">
         <v>0</v>
       </c>
       <c r="C65" s="1">
@@ -3536,7 +3626,7 @@
       <c r="H65" s="2">
         <v>1004</v>
       </c>
-      <c r="I65" s="16">
+      <c r="I65" s="7">
         <v>7</v>
       </c>
       <c r="J65" s="1">
@@ -3547,7 +3637,7 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>4</v>
       </c>
       <c r="C66" s="1">
@@ -3568,7 +3658,7 @@
       <c r="H66" s="2">
         <v>1005</v>
       </c>
-      <c r="I66" s="16">
+      <c r="I66" s="7">
         <v>7</v>
       </c>
       <c r="J66" s="1">
@@ -3579,7 +3669,7 @@
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="7">
         <v>0</v>
       </c>
       <c r="C67" s="1">
@@ -3600,7 +3690,7 @@
       <c r="H67" s="2">
         <v>1006</v>
       </c>
-      <c r="I67" s="16">
+      <c r="I67" s="7">
         <v>7</v>
       </c>
       <c r="J67" s="1">
@@ -3611,7 +3701,7 @@
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="7">
         <v>3</v>
       </c>
       <c r="C68" s="1">
@@ -3632,7 +3722,7 @@
       <c r="H68" s="2">
         <v>1007</v>
       </c>
-      <c r="I68" s="16">
+      <c r="I68" s="7">
         <v>7</v>
       </c>
       <c r="J68" s="1">
@@ -3643,7 +3733,7 @@
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>4</v>
       </c>
       <c r="C69" s="1">
@@ -3664,7 +3754,7 @@
       <c r="H69" s="2">
         <v>1008</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I69" s="7">
         <v>7</v>
       </c>
       <c r="J69" s="1">
@@ -3675,7 +3765,7 @@
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="7">
         <v>0</v>
       </c>
       <c r="C70" s="1">
@@ -3696,7 +3786,7 @@
       <c r="H70" s="2">
         <v>1009</v>
       </c>
-      <c r="I70" s="16">
+      <c r="I70" s="7">
         <v>7</v>
       </c>
       <c r="J70" s="1">
@@ -3707,7 +3797,7 @@
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>3</v>
       </c>
       <c r="C71" s="1">
@@ -3728,7 +3818,7 @@
       <c r="H71" s="2">
         <v>1010</v>
       </c>
-      <c r="I71" s="16">
+      <c r="I71" s="7">
         <v>7</v>
       </c>
       <c r="J71" s="1">
@@ -3739,7 +3829,7 @@
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="7">
         <v>4</v>
       </c>
       <c r="C72" s="1">
@@ -3760,7 +3850,7 @@
       <c r="H72" s="2">
         <v>1011</v>
       </c>
-      <c r="I72" s="16">
+      <c r="I72" s="7">
         <v>7</v>
       </c>
       <c r="J72" s="1">
@@ -3771,7 +3861,7 @@
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>3</v>
       </c>
       <c r="C73" s="1">
@@ -3792,7 +3882,7 @@
       <c r="H73" s="2">
         <v>1012</v>
       </c>
-      <c r="I73" s="16">
+      <c r="I73" s="7">
         <v>7</v>
       </c>
       <c r="J73" s="1">
@@ -3803,7 +3893,7 @@
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>0</v>
       </c>
       <c r="C74" s="1">
@@ -3824,7 +3914,7 @@
       <c r="H74" s="2">
         <v>1013</v>
       </c>
-      <c r="I74" s="16">
+      <c r="I74" s="7">
         <v>7</v>
       </c>
       <c r="J74" s="1">
@@ -3835,7 +3925,7 @@
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>3</v>
       </c>
       <c r="C75" s="1">
@@ -3856,7 +3946,7 @@
       <c r="H75" s="2">
         <v>1014</v>
       </c>
-      <c r="I75" s="16">
+      <c r="I75" s="7">
         <v>7</v>
       </c>
       <c r="J75" s="1">
@@ -3867,7 +3957,7 @@
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="7">
         <v>4</v>
       </c>
       <c r="C76" s="1">
@@ -3888,7 +3978,7 @@
       <c r="H76" s="2">
         <v>1015</v>
       </c>
-      <c r="I76" s="16">
+      <c r="I76" s="7">
         <v>7</v>
       </c>
       <c r="J76" s="1">
@@ -3899,7 +3989,7 @@
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="7">
         <v>4</v>
       </c>
       <c r="C77" s="1">
@@ -3920,7 +4010,7 @@
       <c r="H77" s="2">
         <v>1016</v>
       </c>
-      <c r="I77" s="16">
+      <c r="I77" s="7">
         <v>7</v>
       </c>
       <c r="J77" s="1">
@@ -3931,7 +4021,7 @@
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="7">
         <v>3</v>
       </c>
       <c r="C78" s="1">
@@ -3952,7 +4042,7 @@
       <c r="H78" s="2">
         <v>1017</v>
       </c>
-      <c r="I78" s="16">
+      <c r="I78" s="7">
         <v>7</v>
       </c>
       <c r="J78" s="1">
@@ -3963,7 +4053,7 @@
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="7">
         <v>3</v>
       </c>
       <c r="C79" s="1">
@@ -3984,7 +4074,7 @@
       <c r="H79" s="2">
         <v>1018</v>
       </c>
-      <c r="I79" s="16">
+      <c r="I79" s="7">
         <v>7</v>
       </c>
       <c r="J79" s="1">

--- a/common/StoryScene_Chapter1.xlsx
+++ b/common/StoryScene_Chapter1.xlsx
@@ -464,10 +464,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -503,52 +503,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,10 +518,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -591,11 +561,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -608,7 +608,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -623,9 +631,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,14 +640,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,7 +693,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,25 +711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,13 +729,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,7 +747,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,7 +771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,25 +783,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,37 +831,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,19 +855,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,19 +909,42 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -942,47 +965,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -998,11 +985,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,10 +1014,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1026,19 +1026,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1047,112 +1047,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1534,8 +1534,8 @@
   <sheetPr/>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>1001</v>
       </c>
       <c r="B62" s="7">
         <v>0</v>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>1002</v>
       </c>
       <c r="B63" s="7">
         <v>0</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>1003</v>
       </c>
       <c r="B64" s="7">
         <v>4</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>1004</v>
       </c>
       <c r="B65" s="7">
         <v>0</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>1005</v>
       </c>
       <c r="B66" s="7">
         <v>4</v>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>1006</v>
       </c>
       <c r="B67" s="7">
         <v>0</v>
@@ -3699,7 +3699,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>1007</v>
       </c>
       <c r="B68" s="7">
         <v>3</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>1008</v>
       </c>
       <c r="B69" s="7">
         <v>4</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>1009</v>
       </c>
       <c r="B70" s="7">
         <v>0</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>1010</v>
       </c>
       <c r="B71" s="7">
         <v>3</v>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>1011</v>
       </c>
       <c r="B72" s="7">
         <v>4</v>
@@ -3859,7 +3859,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>1012</v>
       </c>
       <c r="B73" s="7">
         <v>3</v>
@@ -3891,7 +3891,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>1013</v>
       </c>
       <c r="B74" s="7">
         <v>0</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>1014</v>
       </c>
       <c r="B75" s="7">
         <v>3</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>1015</v>
       </c>
       <c r="B76" s="7">
         <v>4</v>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>1016</v>
       </c>
       <c r="B77" s="7">
         <v>4</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>1017</v>
       </c>
       <c r="B78" s="7">
         <v>3</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>1018</v>
       </c>
       <c r="B79" s="7">
         <v>3</v>

--- a/common/StoryScene_Chapter1.xlsx
+++ b/common/StoryScene_Chapter1.xlsx
@@ -503,7 +503,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,25 +511,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -540,8 +548,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,14 +586,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,31 +594,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,17 +616,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,14 +641,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,7 +693,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,13 +777,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,7 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,91 +843,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,37 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,31 +909,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -941,10 +935,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -968,15 +960,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -985,24 +968,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,10 +1014,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1026,133 +1026,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1534,8 +1534,8 @@
   <sheetPr/>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:A79"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3531,7 +3531,7 @@
         <v>26</v>
       </c>
       <c r="I62" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J62" s="1">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>27</v>
       </c>
       <c r="I63" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J63" s="1">
         <v>0</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>1003</v>
       </c>
       <c r="I64" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J64" s="1">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>1004</v>
       </c>
       <c r="I65" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J65" s="1">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -3659,7 +3659,7 @@
         <v>1005</v>
       </c>
       <c r="I66" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J66" s="1">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>1006</v>
       </c>
       <c r="I67" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>1007</v>
       </c>
       <c r="I68" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>1008</v>
       </c>
       <c r="I69" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J69" s="1">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>1009</v>
       </c>
       <c r="I70" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J70" s="1">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>1010</v>
       </c>
       <c r="I71" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -3851,7 +3851,7 @@
         <v>1011</v>
       </c>
       <c r="I72" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J72" s="1">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>1012</v>
       </c>
       <c r="I73" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>1013</v>
       </c>
       <c r="I74" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J74" s="1">
         <v>0</v>
@@ -3947,7 +3947,7 @@
         <v>1014</v>
       </c>
       <c r="I75" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J75" s="1">
         <v>0</v>
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>1015</v>
       </c>
       <c r="I76" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J76" s="1">
         <v>0</v>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -4011,7 +4011,7 @@
         <v>1016</v>
       </c>
       <c r="I77" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J77" s="1">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>1017</v>
       </c>
       <c r="I78" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J78" s="1">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>1018</v>
       </c>
       <c r="I79" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J79" s="1">
         <v>0</v>

--- a/common/StoryScene_Chapter1.xlsx
+++ b/common/StoryScene_Chapter1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog" sheetId="1" r:id="rId1"/>
@@ -464,10 +464,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -503,7 +503,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,38 +511,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,22 +526,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,24 +556,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,8 +579,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -641,6 +617,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,7 +693,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,7 +723,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,13 +771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,121 +783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,7 +801,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,39 +909,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -968,11 +935,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,21 +1006,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1014,10 +1014,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1026,16 +1026,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1044,115 +1044,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1534,8 +1534,8 @@
   <sheetPr/>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M76" sqref="M76"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
         <v>14</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" s="1">
         <v>26</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1">
         <v>31</v>
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" s="1">
         <v>32</v>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47" s="1">
         <v>45</v>

--- a/common/StoryScene_Chapter1.xlsx
+++ b/common/StoryScene_Chapter1.xlsx
@@ -464,10 +464,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -503,15 +503,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,8 +569,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,6 +582,28 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -580,59 +624,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,6 +633,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,13 +693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,25 +717,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,13 +735,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,25 +759,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,13 +789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,25 +807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,13 +831,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,17 +909,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,8 +938,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -957,22 +962,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,10 +1014,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1026,133 +1026,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1534,8 +1534,8 @@
   <sheetPr/>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3641,7 +3641,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>

--- a/common/StoryScene_Chapter1.xlsx
+++ b/common/StoryScene_Chapter1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog" sheetId="1" r:id="rId1"/>
@@ -464,10 +464,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -503,36 +503,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,17 +517,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,7 +541,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,12 +601,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -600,47 +616,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,13 +693,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,96 +729,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -819,7 +741,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,7 +753,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,31 +849,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,24 +912,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -938,11 +920,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,21 +972,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1006,6 +986,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1014,10 +1014,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1026,133 +1026,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1535,7 +1535,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" s="2">
         <v>1003</v>

--- a/common/StoryScene_Chapter1.xlsx
+++ b/common/StoryScene_Chapter1.xlsx
@@ -14,29 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>序号</t>
   </si>
   <si>
     <t xml:space="preserve">对话类型
-0=旁边
+0=旁白
 1=选项标题
 2=选项
 3=主角(我)
 4=知交(填id)
-5=npc(填名字)
+5=npc(填id)
+6=npc(填名字)
+7=正上文本
 </t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">人物id
 </t>
     </r>
@@ -52,13 +47,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">人物名称
 </t>
     </r>
@@ -74,13 +62,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">人物立绘id
 </t>
     </r>
@@ -91,18 +72,14 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>关联RolePortray</t>
+      <t>关联RolePortray
+对话类型=3时，关联主角头像
+填值表示替换默认立绘
+-1表示不显示立绘</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">表情id
 </t>
     </r>
@@ -125,13 +102,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">对话内容
 </t>
     </r>
@@ -147,13 +117,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">场景id
 </t>
     </r>
@@ -172,13 +135,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>id</t>
     </r>
     <r>
@@ -204,13 +160,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>type</t>
     </r>
     <r>
@@ -236,13 +185,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>role_id</t>
     </r>
     <r>
@@ -268,13 +210,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>role_name</t>
     </r>
     <r>
@@ -300,13 +235,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>portray</t>
     </r>
     <r>
@@ -332,13 +260,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">expression </t>
     </r>
     <r>
@@ -355,13 +276,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">camera </t>
     </r>
     <r>
@@ -378,13 +292,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>dialog</t>
     </r>
     <r>
@@ -413,13 +320,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">weather </t>
     </r>
     <r>
@@ -435,22 +335,10 @@
     </r>
   </si>
   <si>
-    <t>沈氏</t>
-  </si>
-  <si>
-    <t>王氏</t>
-  </si>
-  <si>
-    <t>钱万三</t>
-  </si>
-  <si>
-    <t>方妈妈</t>
+    <t>乳娘</t>
   </si>
   <si>
     <t>仆役</t>
-  </si>
-  <si>
-    <t>大伯母</t>
   </si>
   <si>
     <t>1001</t>
@@ -502,6 +390,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -510,7 +399,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -519,14 +408,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,6 +429,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -555,7 +460,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,8 +495,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,7 +505,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,7 +520,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -602,45 +529,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,7 +569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,13 +581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,7 +599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +617,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,55 +695,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,13 +731,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,49 +749,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,18 +799,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,17 +838,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,6 +871,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -986,26 +894,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1014,10 +902,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1026,137 +914,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1181,19 +1069,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1201,6 +1089,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1532,15 +1423,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
@@ -1553,7 +1444,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="120.75" spans="1:10">
+    <row r="1" ht="164.25" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1642,8 +1533,8 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="7">
-        <v>12</v>
+      <c r="I3" s="8">
+        <v>0</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -1654,28 +1545,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
+      <c r="D4" s="7">
+        <v>0</v>
       </c>
       <c r="E4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="7">
-        <v>12</v>
+      <c r="I4" s="8">
+        <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -1685,8 +1576,8 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>3</v>
+      <c r="B5" s="8">
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1695,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="7">
-        <v>2</v>
+      <c r="G5" s="1">
+        <v>1</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="7">
-        <v>12</v>
+      <c r="I5" s="15">
+        <v>500005</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1717,29 +1608,29 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="8">
         <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="7">
-        <v>2</v>
+      <c r="G6" s="1">
+        <v>1</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
       </c>
-      <c r="I6" s="7">
-        <v>12</v>
+      <c r="I6" s="15">
+        <v>500005</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1749,29 +1640,29 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
+      <c r="B7" s="8">
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
       </c>
-      <c r="I7" s="7">
-        <v>12</v>
+      <c r="I7" s="15">
+        <v>500005</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1781,7 +1672,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="9">
         <v>0</v>
       </c>
       <c r="C8" s="1">
@@ -1797,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
         <v>6</v>
       </c>
-      <c r="I8" s="7">
-        <v>9</v>
+      <c r="I8" s="15">
+        <v>500005</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1813,17 +1704,17 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>5</v>
+      <c r="B9" s="8">
+        <v>0</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="7">
-        <v>24</v>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1834,8 +1725,8 @@
       <c r="H9" s="1">
         <v>7</v>
       </c>
-      <c r="I9" s="7">
-        <v>9</v>
+      <c r="I9" s="15">
+        <v>500002</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1845,17 +1736,17 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="7">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1866,8 +1757,8 @@
       <c r="H10" s="1">
         <v>8</v>
       </c>
-      <c r="I10" s="7">
-        <v>9</v>
+      <c r="I10" s="15">
+        <v>500002</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1877,17 +1768,17 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="10">
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="7">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1898,8 +1789,8 @@
       <c r="H11" s="1">
         <v>9</v>
       </c>
-      <c r="I11" s="7">
-        <v>9</v>
+      <c r="I11" s="15">
+        <v>500002</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1909,17 +1800,17 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="10">
         <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="7">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1930,8 +1821,8 @@
       <c r="H12" s="1">
         <v>10</v>
       </c>
-      <c r="I12" s="7">
-        <v>9</v>
+      <c r="I12" s="15">
+        <v>500002</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1941,8 +1832,8 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>0</v>
+      <c r="B13" s="9">
+        <v>1</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1957,13 +1848,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
         <v>11</v>
       </c>
-      <c r="I13" s="7">
-        <v>9</v>
+      <c r="I13" s="15">
+        <v>500002</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1973,8 +1864,8 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
+      <c r="B14" s="11">
+        <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1989,13 +1880,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
         <v>12</v>
       </c>
-      <c r="I14" s="7">
-        <v>9</v>
+      <c r="I14" s="15">
+        <v>0</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -2005,7 +1896,7 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="8">
         <v>0</v>
       </c>
       <c r="C15" s="1">
@@ -2021,13 +1912,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
         <v>13</v>
       </c>
-      <c r="I15" s="7">
-        <v>9</v>
+      <c r="I15" s="15">
+        <v>500002</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -2037,29 +1928,29 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="8">
         <v>5</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="7">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="1">
-        <v>1</v>
+      <c r="G16" s="8">
+        <v>3</v>
       </c>
       <c r="H16" s="1">
         <v>14</v>
       </c>
-      <c r="I16" s="7">
-        <v>9</v>
+      <c r="I16" s="15">
+        <v>500002</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -2069,11 +1960,11 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>0</v>
+      <c r="B17" s="8">
+        <v>5</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -2090,8 +1981,8 @@
       <c r="H17" s="1">
         <v>15</v>
       </c>
-      <c r="I17" s="7">
-        <v>9</v>
+      <c r="I17" s="15">
+        <v>500002</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -2101,29 +1992,29 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>5</v>
+      <c r="B18" s="11">
+        <v>2</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="7">
-        <v>19</v>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
         <v>16</v>
       </c>
-      <c r="I18" s="7">
-        <v>9</v>
+      <c r="I18" s="15">
+        <v>0</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -2134,7 +2025,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -2149,13 +2040,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
         <v>17</v>
       </c>
-      <c r="I19" s="7">
-        <v>9</v>
+      <c r="I19" s="15">
+        <v>500002</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -2165,8 +2056,8 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="9">
-        <v>2</v>
+      <c r="B20" s="8">
+        <v>0</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -2181,13 +2072,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
         <v>18</v>
       </c>
-      <c r="I20" s="7">
-        <v>9</v>
+      <c r="I20" s="15">
+        <v>500002</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -2197,7 +2088,7 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="8">
         <v>0</v>
       </c>
       <c r="C21" s="1">
@@ -2213,13 +2104,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
         <v>19</v>
       </c>
-      <c r="I21" s="7">
-        <v>9</v>
+      <c r="I21" s="15">
+        <v>500003</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -2229,7 +2120,7 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="8">
         <v>0</v>
       </c>
       <c r="C22" s="1">
@@ -2245,13 +2136,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
         <v>20</v>
       </c>
-      <c r="I22" s="7">
-        <v>9</v>
+      <c r="I22" s="15">
+        <v>500003</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -2261,11 +2152,11 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
-        <v>0</v>
+      <c r="B23" s="8">
+        <v>5</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -2277,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" s="1">
         <v>21</v>
       </c>
-      <c r="I23" s="7">
-        <v>9</v>
+      <c r="I23" s="15">
+        <v>500003</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -2293,8 +2184,8 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="9">
-        <v>2</v>
+      <c r="B24" s="8">
+        <v>0</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -2309,13 +2200,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
         <v>22</v>
       </c>
-      <c r="I24" s="7">
-        <v>9</v>
+      <c r="I24" s="15">
+        <v>500003</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -2325,7 +2216,7 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="8">
         <v>0</v>
       </c>
       <c r="C25" s="1">
@@ -2341,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
         <v>23</v>
       </c>
-      <c r="I25" s="7">
-        <v>9</v>
+      <c r="I25" s="15">
+        <v>500003</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -2357,8 +2248,8 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
-        <v>0</v>
+      <c r="B26" s="9">
+        <v>1</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -2373,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1">
         <v>24</v>
       </c>
-      <c r="I26" s="7">
-        <v>9</v>
+      <c r="I26" s="15">
+        <v>500003</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -2389,8 +2280,8 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
-        <v>0</v>
+      <c r="B27" s="11">
+        <v>2</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -2405,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1">
         <v>25</v>
       </c>
-      <c r="I27" s="7">
-        <v>10</v>
+      <c r="I27" s="15">
+        <v>0</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -2421,29 +2312,29 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
-        <v>5</v>
+      <c r="B28" s="8">
+        <v>0</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="7">
-        <v>24</v>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
       </c>
-      <c r="G28" s="7">
-        <v>2</v>
+      <c r="G28" s="1">
+        <v>1</v>
       </c>
       <c r="H28" s="1">
         <v>26</v>
       </c>
-      <c r="I28" s="7">
-        <v>10</v>
+      <c r="I28" s="15">
+        <v>500003</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -2453,13 +2344,13 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="8">
-        <v>1</v>
+      <c r="B29" s="9">
+        <v>0</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
@@ -2469,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="1">
         <v>27</v>
       </c>
-      <c r="I29" s="7">
-        <v>10</v>
+      <c r="I29" s="15">
+        <v>500006</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -2485,13 +2376,13 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="9">
-        <v>2</v>
+      <c r="B30" s="8">
+        <v>5</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="10">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
         <v>0</v>
       </c>
       <c r="E30" s="1">
@@ -2501,13 +2392,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1">
         <v>28</v>
       </c>
-      <c r="I30" s="7">
-        <v>10</v>
+      <c r="I30" s="15">
+        <v>500001</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -2517,13 +2408,13 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="11">
-        <v>0</v>
+      <c r="B31" s="8">
+        <v>5</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="10">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
         <v>0</v>
       </c>
       <c r="E31" s="1">
@@ -2532,14 +2423,14 @@
       <c r="F31" s="1">
         <v>0</v>
       </c>
-      <c r="G31" s="1">
-        <v>2</v>
+      <c r="G31" s="8">
+        <v>3</v>
       </c>
       <c r="H31" s="1">
         <v>29</v>
       </c>
-      <c r="I31" s="7">
-        <v>13</v>
+      <c r="I31" s="15">
+        <v>500001</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -2549,17 +2440,17 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="8">
         <v>5</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="7">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -2570,8 +2461,8 @@
       <c r="H32" s="1">
         <v>30</v>
       </c>
-      <c r="I32" s="7">
-        <v>8</v>
+      <c r="I32" s="15">
+        <v>500001</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -2581,29 +2472,29 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="8">
         <v>5</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="7">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
       </c>
-      <c r="G33" s="7">
-        <v>1</v>
+      <c r="G33" s="8">
+        <v>3</v>
       </c>
       <c r="H33" s="1">
         <v>31</v>
       </c>
-      <c r="I33" s="7">
-        <v>8</v>
+      <c r="I33" s="15">
+        <v>500001</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -2613,29 +2504,29 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
-        <v>5</v>
+      <c r="B34" s="8">
+        <v>0</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="7">
-        <v>24</v>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
-      <c r="G34" s="7">
-        <v>2</v>
+      <c r="G34" s="1">
+        <v>1</v>
       </c>
       <c r="H34" s="1">
         <v>32</v>
       </c>
-      <c r="I34" s="7">
-        <v>8</v>
+      <c r="I34" s="15">
+        <v>500001</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -2645,13 +2536,13 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="8">
         <v>0</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
@@ -2661,13 +2552,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" s="1">
         <v>33</v>
       </c>
-      <c r="I35" s="7">
-        <v>13</v>
+      <c r="I35" s="15">
+        <v>500001</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -2677,14 +2568,14 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
-        <v>5</v>
+      <c r="B36" s="8">
+        <v>6</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E36" s="1">
         <v>14</v>
@@ -2698,8 +2589,8 @@
       <c r="H36" s="1">
         <v>34</v>
       </c>
-      <c r="I36" s="1">
-        <v>8</v>
+      <c r="I36" s="15">
+        <v>500001</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -2709,13 +2600,13 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="9">
         <v>0</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
@@ -2725,13 +2616,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" s="1">
         <v>35</v>
       </c>
-      <c r="I37" s="7">
-        <v>13</v>
+      <c r="I37" s="15">
+        <v>500007</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
@@ -2742,28 +2633,28 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
       </c>
-      <c r="D38" s="10">
-        <v>0</v>
+      <c r="D38" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
       </c>
-      <c r="G38" s="1">
-        <v>2</v>
+      <c r="G38" s="8">
+        <v>3</v>
       </c>
       <c r="H38" s="1">
         <v>36</v>
       </c>
-      <c r="I38" s="1">
-        <v>14</v>
+      <c r="I38" s="15">
+        <v>500001</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -2773,29 +2664,29 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="8">
         <v>5</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
       </c>
       <c r="E39" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
       </c>
-      <c r="G39" s="7">
-        <v>3</v>
+      <c r="G39" s="1">
+        <v>2</v>
       </c>
       <c r="H39" s="1">
         <v>37</v>
       </c>
-      <c r="I39" s="1">
-        <v>8</v>
+      <c r="I39" s="15">
+        <v>500001</v>
       </c>
       <c r="J39" s="1">
         <v>0</v>
@@ -2805,17 +2696,17 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="8">
         <v>5</v>
       </c>
       <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0</v>
       </c>
       <c r="E40" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -2826,8 +2717,8 @@
       <c r="H40" s="1">
         <v>38</v>
       </c>
-      <c r="I40" s="1">
-        <v>8</v>
+      <c r="I40" s="15">
+        <v>500001</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
@@ -2837,17 +2728,17 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="8">
         <v>5</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
       </c>
       <c r="E41" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -2858,8 +2749,8 @@
       <c r="H41" s="1">
         <v>39</v>
       </c>
-      <c r="I41" s="1">
-        <v>8</v>
+      <c r="I41" s="15">
+        <v>500001</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
@@ -2869,16 +2760,16 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="8">
         <v>0</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
       </c>
-      <c r="D42" s="7">
-        <v>0</v>
-      </c>
-      <c r="E42" s="7">
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
         <v>0</v>
       </c>
       <c r="F42" s="1">
@@ -2890,8 +2781,8 @@
       <c r="H42" s="1">
         <v>40</v>
       </c>
-      <c r="I42" s="7">
-        <v>11</v>
+      <c r="I42" s="15">
+        <v>500004</v>
       </c>
       <c r="J42" s="1">
         <v>0</v>
@@ -2901,17 +2792,17 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="1">
-        <v>5</v>
+      <c r="B43" s="8">
+        <v>0</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>23</v>
+      <c r="D43" s="1">
+        <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -2922,8 +2813,8 @@
       <c r="H43" s="1">
         <v>41</v>
       </c>
-      <c r="I43" s="7">
-        <v>11</v>
+      <c r="I43" s="15">
+        <v>500004</v>
       </c>
       <c r="J43" s="1">
         <v>0</v>
@@ -2933,7 +2824,7 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="8">
         <v>3</v>
       </c>
       <c r="C44" s="1">
@@ -2943,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -2954,8 +2845,8 @@
       <c r="H44" s="1">
         <v>42</v>
       </c>
-      <c r="I44" s="7">
-        <v>11</v>
+      <c r="I44" s="15">
+        <v>500004</v>
       </c>
       <c r="J44" s="1">
         <v>0</v>
@@ -2965,14 +2856,14 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="1">
-        <v>5</v>
+      <c r="B45" s="8">
+        <v>6</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E45" s="1">
         <v>14</v>
@@ -2986,8 +2877,8 @@
       <c r="H45" s="1">
         <v>43</v>
       </c>
-      <c r="I45" s="7">
-        <v>11</v>
+      <c r="I45" s="15">
+        <v>500004</v>
       </c>
       <c r="J45" s="1">
         <v>0</v>
@@ -2997,14 +2888,14 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="1">
-        <v>5</v>
+      <c r="B46" s="8">
+        <v>6</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E46" s="1">
         <v>14</v>
@@ -3018,8 +2909,8 @@
       <c r="H46" s="1">
         <v>44</v>
       </c>
-      <c r="I46" s="7">
-        <v>11</v>
+      <c r="I46" s="15">
+        <v>500004</v>
       </c>
       <c r="J46" s="1">
         <v>0</v>
@@ -3029,14 +2920,14 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="1">
-        <v>5</v>
+      <c r="B47" s="8">
+        <v>6</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E47" s="1">
         <v>14</v>
@@ -3044,14 +2935,14 @@
       <c r="F47" s="1">
         <v>0</v>
       </c>
-      <c r="G47" s="7">
-        <v>2</v>
+      <c r="G47" s="8">
+        <v>3</v>
       </c>
       <c r="H47" s="1">
         <v>45</v>
       </c>
-      <c r="I47" s="7">
-        <v>11</v>
+      <c r="I47" s="15">
+        <v>500004</v>
       </c>
       <c r="J47" s="1">
         <v>0</v>
@@ -3061,7 +2952,7 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="9">
         <v>0</v>
       </c>
       <c r="C48" s="1">
@@ -3077,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="1">
         <v>46</v>
       </c>
-      <c r="I48" s="1">
-        <v>15</v>
+      <c r="I48" s="15">
+        <v>500008</v>
       </c>
       <c r="J48" s="1">
         <v>0</v>
@@ -3093,7 +2984,7 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="11">
         <v>2</v>
       </c>
       <c r="C49" s="1">
@@ -3109,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" s="1">
         <v>47</v>
       </c>
-      <c r="I49" s="7">
-        <v>10</v>
+      <c r="I49" s="1">
+        <v>0</v>
       </c>
       <c r="J49" s="1">
         <v>0</v>
@@ -3125,7 +3016,7 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="12">
         <v>0</v>
       </c>
       <c r="C50" s="1">
@@ -3141,13 +3032,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" s="1">
         <v>48</v>
       </c>
-      <c r="I50" s="7">
-        <v>10</v>
+      <c r="I50" s="15">
+        <v>500003</v>
       </c>
       <c r="J50" s="1">
         <v>0</v>
@@ -3157,8 +3048,8 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="1">
-        <v>3</v>
+      <c r="B51" s="10">
+        <v>0</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
@@ -3167,19 +3058,19 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
       </c>
       <c r="G51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" s="1">
         <v>49</v>
       </c>
-      <c r="I51" s="7">
-        <v>10</v>
+      <c r="I51" s="15">
+        <v>500003</v>
       </c>
       <c r="J51" s="1">
         <v>0</v>
@@ -3189,8 +3080,8 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="1">
-        <v>0</v>
+      <c r="B52" s="10">
+        <v>3</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -3199,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -3210,8 +3101,8 @@
       <c r="H52" s="1">
         <v>50</v>
       </c>
-      <c r="I52" s="7">
-        <v>10</v>
+      <c r="I52" s="15">
+        <v>500003</v>
       </c>
       <c r="J52" s="1">
         <v>0</v>
@@ -3221,14 +3112,14 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="1">
-        <v>5</v>
+      <c r="B53" s="10">
+        <v>6</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>23</v>
+      <c r="D53" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E53" s="1">
         <v>14</v>
@@ -3242,8 +3133,8 @@
       <c r="H53" s="1">
         <v>51</v>
       </c>
-      <c r="I53" s="7">
-        <v>10</v>
+      <c r="I53" s="15">
+        <v>500003</v>
       </c>
       <c r="J53" s="1">
         <v>0</v>
@@ -3253,14 +3144,14 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="1">
-        <v>5</v>
+      <c r="B54" s="10">
+        <v>6</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>23</v>
+      <c r="D54" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E54" s="1">
         <v>14</v>
@@ -3274,8 +3165,8 @@
       <c r="H54" s="1">
         <v>52</v>
       </c>
-      <c r="I54" s="7">
-        <v>10</v>
+      <c r="I54" s="15">
+        <v>500003</v>
       </c>
       <c r="J54" s="1">
         <v>0</v>
@@ -3285,17 +3176,17 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="1">
-        <v>3</v>
+      <c r="B55" s="10">
+        <v>6</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
       </c>
-      <c r="D55" s="1">
-        <v>0</v>
+      <c r="D55" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E55" s="1">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -3306,8 +3197,8 @@
       <c r="H55" s="1">
         <v>53</v>
       </c>
-      <c r="I55" s="7">
-        <v>10</v>
+      <c r="I55" s="15">
+        <v>500003</v>
       </c>
       <c r="J55" s="1">
         <v>0</v>
@@ -3317,17 +3208,17 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="1">
-        <v>5</v>
+      <c r="B56" s="10">
+        <v>3</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
       </c>
-      <c r="D56" s="12" t="s">
-        <v>23</v>
+      <c r="D56" s="10">
+        <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3338,8 +3229,8 @@
       <c r="H56" s="1">
         <v>54</v>
       </c>
-      <c r="I56" s="7">
-        <v>10</v>
+      <c r="I56" s="15">
+        <v>500003</v>
       </c>
       <c r="J56" s="1">
         <v>0</v>
@@ -3349,17 +3240,17 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="1">
-        <v>0</v>
+      <c r="B57" s="10">
+        <v>6</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
       </c>
-      <c r="D57" s="1">
-        <v>0</v>
+      <c r="D57" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -3370,8 +3261,8 @@
       <c r="H57" s="1">
         <v>55</v>
       </c>
-      <c r="I57" s="7">
-        <v>10</v>
+      <c r="I57" s="15">
+        <v>500003</v>
       </c>
       <c r="J57" s="1">
         <v>0</v>
@@ -3381,17 +3272,17 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="1">
-        <v>3</v>
+      <c r="B58" s="10">
+        <v>6</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
       </c>
-      <c r="D58" s="1">
-        <v>0</v>
+      <c r="D58" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E58" s="1">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -3402,8 +3293,8 @@
       <c r="H58" s="1">
         <v>56</v>
       </c>
-      <c r="I58" s="7">
-        <v>10</v>
+      <c r="I58" s="15">
+        <v>500003</v>
       </c>
       <c r="J58" s="1">
         <v>0</v>
@@ -3413,7 +3304,7 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="10">
         <v>0</v>
       </c>
       <c r="C59" s="1">
@@ -3429,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" s="1">
         <v>57</v>
       </c>
-      <c r="I59" s="7">
-        <v>10</v>
+      <c r="I59" s="15">
+        <v>500003</v>
       </c>
       <c r="J59" s="1">
         <v>0</v>
@@ -3445,8 +3336,8 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="1">
-        <v>0</v>
+      <c r="B60" s="10">
+        <v>3</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
@@ -3455,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -3466,8 +3357,8 @@
       <c r="H60" s="1">
         <v>58</v>
       </c>
-      <c r="I60" s="7">
-        <v>10</v>
+      <c r="I60" s="15">
+        <v>500003</v>
       </c>
       <c r="J60" s="1">
         <v>0</v>
@@ -3477,7 +3368,7 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="10">
         <v>0</v>
       </c>
       <c r="C61" s="1">
@@ -3493,13 +3384,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" s="1">
         <v>59</v>
       </c>
-      <c r="I61" s="7">
-        <v>10</v>
+      <c r="I61" s="15">
+        <v>500003</v>
       </c>
       <c r="J61" s="1">
         <v>0</v>
@@ -3507,9 +3398,9 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B62" s="7">
+        <v>60</v>
+      </c>
+      <c r="B62" s="10">
         <v>0</v>
       </c>
       <c r="C62" s="1">
@@ -3527,11 +3418,11 @@
       <c r="G62" s="1">
         <v>1</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="7">
-        <v>17</v>
+      <c r="H62" s="1">
+        <v>60</v>
+      </c>
+      <c r="I62" s="15">
+        <v>500003</v>
       </c>
       <c r="J62" s="1">
         <v>0</v>
@@ -3539,9 +3430,9 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="10">
         <v>0</v>
       </c>
       <c r="C63" s="1">
@@ -3559,11 +3450,11 @@
       <c r="G63" s="1">
         <v>1</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I63" s="7">
-        <v>17</v>
+      <c r="H63" s="1">
+        <v>61</v>
+      </c>
+      <c r="I63" s="15">
+        <v>500003</v>
       </c>
       <c r="J63" s="1">
         <v>0</v>
@@ -3571,31 +3462,31 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="1">
-        <v>1003</v>
-      </c>
-      <c r="B64" s="7">
-        <v>4</v>
+        <v>62</v>
+      </c>
+      <c r="B64" s="10">
+        <v>0</v>
       </c>
       <c r="C64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
       </c>
       <c r="G64" s="1">
-        <v>2</v>
-      </c>
-      <c r="H64" s="2">
-        <v>1003</v>
-      </c>
-      <c r="I64" s="7">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="H64" s="1">
+        <v>62</v>
+      </c>
+      <c r="I64" s="15">
+        <v>500003</v>
       </c>
       <c r="J64" s="1">
         <v>0</v>
@@ -3603,9 +3494,9 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1">
-        <v>1004</v>
-      </c>
-      <c r="B65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="10">
         <v>0</v>
       </c>
       <c r="C65" s="1">
@@ -3621,13 +3512,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="1">
-        <v>2</v>
-      </c>
-      <c r="H65" s="2">
-        <v>1004</v>
-      </c>
-      <c r="I65" s="7">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="H65" s="1">
+        <v>63</v>
+      </c>
+      <c r="I65" s="15">
+        <v>500003</v>
       </c>
       <c r="J65" s="1">
         <v>0</v>
@@ -3635,31 +3526,31 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="1">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B66" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <v>3</v>
-      </c>
-      <c r="H66" s="2">
-        <v>1005</v>
-      </c>
-      <c r="I66" s="7">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" s="15">
+        <v>500010</v>
       </c>
       <c r="J66" s="1">
         <v>0</v>
@@ -3667,7 +3558,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="1">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B67" s="7">
         <v>0</v>
@@ -3687,11 +3578,11 @@
       <c r="G67" s="1">
         <v>1</v>
       </c>
-      <c r="H67" s="2">
-        <v>1006</v>
-      </c>
-      <c r="I67" s="7">
-        <v>17</v>
+      <c r="H67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" s="15">
+        <v>500010</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -3699,19 +3590,19 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="B68" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -3720,10 +3611,10 @@
         <v>2</v>
       </c>
       <c r="H68" s="2">
-        <v>1007</v>
-      </c>
-      <c r="I68" s="7">
-        <v>17</v>
+        <v>1003</v>
+      </c>
+      <c r="I68" s="15">
+        <v>500010</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -3731,19 +3622,19 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="1">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B69" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -3752,10 +3643,10 @@
         <v>2</v>
       </c>
       <c r="H69" s="2">
-        <v>1008</v>
-      </c>
-      <c r="I69" s="7">
-        <v>17</v>
+        <v>1004</v>
+      </c>
+      <c r="I69" s="15">
+        <v>500010</v>
       </c>
       <c r="J69" s="1">
         <v>0</v>
@@ -3763,13 +3654,13 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="1">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="B70" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
@@ -3781,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H70" s="2">
-        <v>1009</v>
-      </c>
-      <c r="I70" s="7">
-        <v>17</v>
+        <v>1005</v>
+      </c>
+      <c r="I70" s="15">
+        <v>500010</v>
       </c>
       <c r="J70" s="1">
         <v>0</v>
@@ -3795,10 +3686,10 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B71" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
@@ -3807,19 +3698,19 @@
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
       </c>
       <c r="G71" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" s="2">
-        <v>1010</v>
-      </c>
-      <c r="I71" s="7">
-        <v>17</v>
+        <v>1006</v>
+      </c>
+      <c r="I71" s="15">
+        <v>500010</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
@@ -3827,19 +3718,19 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="B72" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -3848,10 +3739,10 @@
         <v>2</v>
       </c>
       <c r="H72" s="2">
-        <v>1011</v>
-      </c>
-      <c r="I72" s="7">
-        <v>17</v>
+        <v>1007</v>
+      </c>
+      <c r="I72" s="15">
+        <v>500010</v>
       </c>
       <c r="J72" s="1">
         <v>0</v>
@@ -3859,19 +3750,19 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B73" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -3880,10 +3771,10 @@
         <v>2</v>
       </c>
       <c r="H73" s="2">
-        <v>1012</v>
-      </c>
-      <c r="I73" s="7">
-        <v>17</v>
+        <v>1008</v>
+      </c>
+      <c r="I73" s="15">
+        <v>301001</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
@@ -3891,7 +3782,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="B74" s="7">
         <v>0</v>
@@ -3912,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="H74" s="2">
-        <v>1013</v>
-      </c>
-      <c r="I74" s="7">
-        <v>17</v>
+        <v>1009</v>
+      </c>
+      <c r="I74" s="15">
+        <v>301001</v>
       </c>
       <c r="J74" s="1">
         <v>0</v>
@@ -3923,7 +3814,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="B75" s="7">
         <v>3</v>
@@ -3935,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -3944,10 +3835,10 @@
         <v>2</v>
       </c>
       <c r="H75" s="2">
-        <v>1014</v>
-      </c>
-      <c r="I75" s="7">
-        <v>17</v>
+        <v>1010</v>
+      </c>
+      <c r="I75" s="15">
+        <v>301001</v>
       </c>
       <c r="J75" s="1">
         <v>0</v>
@@ -3955,7 +3846,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="B76" s="7">
         <v>4</v>
@@ -3967,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -3976,10 +3867,10 @@
         <v>2</v>
       </c>
       <c r="H76" s="2">
-        <v>1015</v>
-      </c>
-      <c r="I76" s="7">
-        <v>17</v>
+        <v>1011</v>
+      </c>
+      <c r="I76" s="15">
+        <v>500010</v>
       </c>
       <c r="J76" s="1">
         <v>0</v>
@@ -3987,19 +3878,19 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="B77" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -4008,10 +3899,10 @@
         <v>2</v>
       </c>
       <c r="H77" s="2">
-        <v>1016</v>
-      </c>
-      <c r="I77" s="7">
-        <v>17</v>
+        <v>1012</v>
+      </c>
+      <c r="I77" s="15">
+        <v>500010</v>
       </c>
       <c r="J77" s="1">
         <v>0</v>
@@ -4019,10 +3910,10 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="B78" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
@@ -4031,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -4040,10 +3931,10 @@
         <v>2</v>
       </c>
       <c r="H78" s="2">
-        <v>1017</v>
-      </c>
-      <c r="I78" s="7">
-        <v>17</v>
+        <v>1013</v>
+      </c>
+      <c r="I78" s="15">
+        <v>500010</v>
       </c>
       <c r="J78" s="1">
         <v>0</v>
@@ -4051,7 +3942,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="B79" s="7">
         <v>3</v>
@@ -4063,21 +3954,149 @@
         <v>0</v>
       </c>
       <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>2</v>
+      </c>
+      <c r="H79" s="2">
+        <v>1014</v>
+      </c>
+      <c r="I79" s="15">
+        <v>500010</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B80" s="7">
         <v>4</v>
       </c>
-      <c r="F79" s="1">
-        <v>0</v>
-      </c>
-      <c r="G79" s="1">
-        <v>2</v>
-      </c>
-      <c r="H79" s="2">
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>2</v>
+      </c>
+      <c r="H80" s="2">
+        <v>1015</v>
+      </c>
+      <c r="I80" s="15">
+        <v>500010</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B81" s="7">
+        <v>4</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>2</v>
+      </c>
+      <c r="H81" s="2">
+        <v>1016</v>
+      </c>
+      <c r="I81" s="15">
+        <v>500010</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B82" s="7">
+        <v>3</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>2</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1017</v>
+      </c>
+      <c r="I82" s="15">
+        <v>500010</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1">
         <v>1018</v>
       </c>
-      <c r="I79" s="7">
-        <v>17</v>
-      </c>
-      <c r="J79" s="1">
+      <c r="B83" s="7">
+        <v>3</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>2</v>
+      </c>
+      <c r="H83" s="2">
+        <v>1018</v>
+      </c>
+      <c r="I83" s="15">
+        <v>500010</v>
+      </c>
+      <c r="J83" s="1">
         <v>0</v>
       </c>
     </row>

--- a/common/StoryScene_Chapter1.xlsx
+++ b/common/StoryScene_Chapter1.xlsx
@@ -32,6 +32,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">人物id
 </t>
     </r>
@@ -47,6 +54,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">人物名称
 </t>
     </r>
@@ -62,6 +76,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">人物立绘id
 </t>
     </r>
@@ -80,6 +101,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">表情id
 </t>
     </r>
@@ -102,6 +130,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">对话内容
 </t>
     </r>
@@ -117,6 +152,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">场景id
 </t>
     </r>
@@ -135,6 +177,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>id</t>
     </r>
     <r>
@@ -160,6 +209,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>type</t>
     </r>
     <r>
@@ -185,6 +241,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>role_id</t>
     </r>
     <r>
@@ -210,6 +273,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>role_name</t>
     </r>
     <r>
@@ -235,6 +305,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>portray</t>
     </r>
     <r>
@@ -260,6 +337,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">expression </t>
     </r>
     <r>
@@ -276,6 +360,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">camera </t>
     </r>
     <r>
@@ -292,6 +383,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>dialog</t>
     </r>
     <r>
@@ -320,6 +418,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">weather </t>
     </r>
     <r>
@@ -392,38 +497,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,58 +520,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,9 +542,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,7 +573,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,7 +686,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,7 +716,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,7 +824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,127 +836,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,13 +902,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,57 +991,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,10 +1007,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -914,137 +1019,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1069,9 +1174,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1089,9 +1191,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1425,8 +1524,8 @@
   <sheetPr/>
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1472,7 +1571,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1504,7 +1603,7 @@
       <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1533,7 +1632,7 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>0</v>
       </c>
       <c r="J3" s="1">
@@ -1565,7 +1664,7 @@
       <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
       <c r="J4" s="1">
@@ -1576,7 +1675,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>0</v>
       </c>
       <c r="C5" s="1">
@@ -1597,7 +1696,7 @@
       <c r="H5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="7">
         <v>500005</v>
       </c>
       <c r="J5" s="1">
@@ -1608,7 +1707,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>0</v>
       </c>
       <c r="C6" s="1">
@@ -1629,7 +1728,7 @@
       <c r="H6" s="1">
         <v>4</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="7">
         <v>500005</v>
       </c>
       <c r="J6" s="1">
@@ -1640,7 +1739,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>5</v>
       </c>
       <c r="C7" s="1">
@@ -1661,7 +1760,7 @@
       <c r="H7" s="1">
         <v>5</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="7">
         <v>500005</v>
       </c>
       <c r="J7" s="1">
@@ -1672,7 +1771,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>0</v>
       </c>
       <c r="C8" s="1">
@@ -1693,7 +1792,7 @@
       <c r="H8" s="1">
         <v>6</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="7">
         <v>500005</v>
       </c>
       <c r="J8" s="1">
@@ -1704,7 +1803,7 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>0</v>
       </c>
       <c r="C9" s="1">
@@ -1720,12 +1819,12 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
         <v>7</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="7">
         <v>500002</v>
       </c>
       <c r="J9" s="1">
@@ -1736,7 +1835,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>5</v>
       </c>
       <c r="C10" s="1">
@@ -1757,7 +1856,7 @@
       <c r="H10" s="1">
         <v>8</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="7">
         <v>500002</v>
       </c>
       <c r="J10" s="1">
@@ -1768,7 +1867,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>5</v>
       </c>
       <c r="C11" s="1">
@@ -1789,7 +1888,7 @@
       <c r="H11" s="1">
         <v>9</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="7">
         <v>500002</v>
       </c>
       <c r="J11" s="1">
@@ -1800,7 +1899,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>5</v>
       </c>
       <c r="C12" s="1">
@@ -1821,7 +1920,7 @@
       <c r="H12" s="1">
         <v>10</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="7">
         <v>500002</v>
       </c>
       <c r="J12" s="1">
@@ -1832,7 +1931,7 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>1</v>
       </c>
       <c r="C13" s="1">
@@ -1853,7 +1952,7 @@
       <c r="H13" s="1">
         <v>11</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="7">
         <v>500002</v>
       </c>
       <c r="J13" s="1">
@@ -1864,7 +1963,7 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>2</v>
       </c>
       <c r="C14" s="1">
@@ -1885,7 +1984,7 @@
       <c r="H14" s="1">
         <v>12</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="7">
         <v>0</v>
       </c>
       <c r="J14" s="1">
@@ -1896,7 +1995,7 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>0</v>
       </c>
       <c r="C15" s="1">
@@ -1917,7 +2016,7 @@
       <c r="H15" s="1">
         <v>13</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="7">
         <v>500002</v>
       </c>
       <c r="J15" s="1">
@@ -1928,7 +2027,7 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>5</v>
       </c>
       <c r="C16" s="1">
@@ -1943,13 +2042,13 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>3</v>
       </c>
       <c r="H16" s="1">
         <v>14</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="7">
         <v>500002</v>
       </c>
       <c r="J16" s="1">
@@ -1960,7 +2059,7 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>5</v>
       </c>
       <c r="C17" s="1">
@@ -1981,7 +2080,7 @@
       <c r="H17" s="1">
         <v>15</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="7">
         <v>500002</v>
       </c>
       <c r="J17" s="1">
@@ -1992,7 +2091,7 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>2</v>
       </c>
       <c r="C18" s="1">
@@ -2013,7 +2112,7 @@
       <c r="H18" s="1">
         <v>16</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="7">
         <v>0</v>
       </c>
       <c r="J18" s="1">
@@ -2024,7 +2123,7 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>0</v>
       </c>
       <c r="C19" s="1">
@@ -2045,7 +2144,7 @@
       <c r="H19" s="1">
         <v>17</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="7">
         <v>500002</v>
       </c>
       <c r="J19" s="1">
@@ -2056,7 +2155,7 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>0</v>
       </c>
       <c r="C20" s="1">
@@ -2077,7 +2176,7 @@
       <c r="H20" s="1">
         <v>18</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="7">
         <v>500002</v>
       </c>
       <c r="J20" s="1">
@@ -2088,7 +2187,7 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>0</v>
       </c>
       <c r="C21" s="1">
@@ -2109,7 +2208,7 @@
       <c r="H21" s="1">
         <v>19</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="7">
         <v>500003</v>
       </c>
       <c r="J21" s="1">
@@ -2120,7 +2219,7 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>0</v>
       </c>
       <c r="C22" s="1">
@@ -2141,7 +2240,7 @@
       <c r="H22" s="1">
         <v>20</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="7">
         <v>500003</v>
       </c>
       <c r="J22" s="1">
@@ -2152,11 +2251,11 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>5</v>
       </c>
       <c r="C23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -2173,7 +2272,7 @@
       <c r="H23" s="1">
         <v>21</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="7">
         <v>500003</v>
       </c>
       <c r="J23" s="1">
@@ -2184,7 +2283,7 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>0</v>
       </c>
       <c r="C24" s="1">
@@ -2205,7 +2304,7 @@
       <c r="H24" s="1">
         <v>22</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="7">
         <v>500003</v>
       </c>
       <c r="J24" s="1">
@@ -2216,7 +2315,7 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>0</v>
       </c>
       <c r="C25" s="1">
@@ -2237,7 +2336,7 @@
       <c r="H25" s="1">
         <v>23</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="7">
         <v>500003</v>
       </c>
       <c r="J25" s="1">
@@ -2248,7 +2347,7 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>1</v>
       </c>
       <c r="C26" s="1">
@@ -2269,7 +2368,7 @@
       <c r="H26" s="1">
         <v>24</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="7">
         <v>500003</v>
       </c>
       <c r="J26" s="1">
@@ -2280,7 +2379,7 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>2</v>
       </c>
       <c r="C27" s="1">
@@ -2301,7 +2400,7 @@
       <c r="H27" s="1">
         <v>25</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="7">
         <v>0</v>
       </c>
       <c r="J27" s="1">
@@ -2312,7 +2411,7 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>0</v>
       </c>
       <c r="C28" s="1">
@@ -2333,7 +2432,7 @@
       <c r="H28" s="1">
         <v>26</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="7">
         <v>500003</v>
       </c>
       <c r="J28" s="1">
@@ -2344,7 +2443,7 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>0</v>
       </c>
       <c r="C29" s="1">
@@ -2365,7 +2464,7 @@
       <c r="H29" s="1">
         <v>27</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="7">
         <v>500006</v>
       </c>
       <c r="J29" s="1">
@@ -2376,7 +2475,7 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>5</v>
       </c>
       <c r="C30" s="1">
@@ -2392,12 +2491,12 @@
         <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="1">
         <v>28</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="7">
         <v>500001</v>
       </c>
       <c r="J30" s="1">
@@ -2408,7 +2507,7 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>5</v>
       </c>
       <c r="C31" s="1">
@@ -2423,13 +2522,13 @@
       <c r="F31" s="1">
         <v>0</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="7">
         <v>3</v>
       </c>
       <c r="H31" s="1">
         <v>29</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="7">
         <v>500001</v>
       </c>
       <c r="J31" s="1">
@@ -2440,7 +2539,7 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>5</v>
       </c>
       <c r="C32" s="1">
@@ -2461,7 +2560,7 @@
       <c r="H32" s="1">
         <v>30</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="7">
         <v>500001</v>
       </c>
       <c r="J32" s="1">
@@ -2472,7 +2571,7 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>5</v>
       </c>
       <c r="C33" s="1">
@@ -2487,13 +2586,13 @@
       <c r="F33" s="1">
         <v>0</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <v>3</v>
       </c>
       <c r="H33" s="1">
         <v>31</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="7">
         <v>500001</v>
       </c>
       <c r="J33" s="1">
@@ -2504,7 +2603,7 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>0</v>
       </c>
       <c r="C34" s="1">
@@ -2525,7 +2624,7 @@
       <c r="H34" s="1">
         <v>32</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="7">
         <v>500001</v>
       </c>
       <c r="J34" s="1">
@@ -2536,7 +2635,7 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>0</v>
       </c>
       <c r="C35" s="1">
@@ -2557,8 +2656,8 @@
       <c r="H35" s="1">
         <v>33</v>
       </c>
-      <c r="I35" s="15">
-        <v>500001</v>
+      <c r="I35" s="7">
+        <v>500007</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -2568,7 +2667,7 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>6</v>
       </c>
       <c r="C36" s="1">
@@ -2578,7 +2677,7 @@
         <v>20</v>
       </c>
       <c r="E36" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -2589,8 +2688,8 @@
       <c r="H36" s="1">
         <v>34</v>
       </c>
-      <c r="I36" s="15">
-        <v>500001</v>
+      <c r="I36" s="7">
+        <v>500007</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -2600,7 +2699,7 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="8">
         <v>0</v>
       </c>
       <c r="C37" s="1">
@@ -2621,7 +2720,7 @@
       <c r="H37" s="1">
         <v>35</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I37" s="7">
         <v>500007</v>
       </c>
       <c r="J37" s="1">
@@ -2647,13 +2746,13 @@
       <c r="F38" s="1">
         <v>0</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="7">
         <v>3</v>
       </c>
       <c r="H38" s="1">
         <v>36</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="7">
         <v>500001</v>
       </c>
       <c r="J38" s="1">
@@ -2664,7 +2763,7 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>5</v>
       </c>
       <c r="C39" s="1">
@@ -2685,7 +2784,7 @@
       <c r="H39" s="1">
         <v>37</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I39" s="7">
         <v>500001</v>
       </c>
       <c r="J39" s="1">
@@ -2696,7 +2795,7 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>5</v>
       </c>
       <c r="C40" s="1">
@@ -2717,7 +2816,7 @@
       <c r="H40" s="1">
         <v>38</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="7">
         <v>500001</v>
       </c>
       <c r="J40" s="1">
@@ -2728,7 +2827,7 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>5</v>
       </c>
       <c r="C41" s="1">
@@ -2749,7 +2848,7 @@
       <c r="H41" s="1">
         <v>39</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I41" s="7">
         <v>500001</v>
       </c>
       <c r="J41" s="1">
@@ -2760,7 +2859,7 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>0</v>
       </c>
       <c r="C42" s="1">
@@ -2781,7 +2880,7 @@
       <c r="H42" s="1">
         <v>40</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="7">
         <v>500004</v>
       </c>
       <c r="J42" s="1">
@@ -2792,7 +2891,7 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>0</v>
       </c>
       <c r="C43" s="1">
@@ -2813,7 +2912,7 @@
       <c r="H43" s="1">
         <v>41</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="7">
         <v>500004</v>
       </c>
       <c r="J43" s="1">
@@ -2824,7 +2923,7 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>3</v>
       </c>
       <c r="C44" s="1">
@@ -2845,7 +2944,7 @@
       <c r="H44" s="1">
         <v>42</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="7">
         <v>500004</v>
       </c>
       <c r="J44" s="1">
@@ -2856,7 +2955,7 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>6</v>
       </c>
       <c r="C45" s="1">
@@ -2877,7 +2976,7 @@
       <c r="H45" s="1">
         <v>43</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="7">
         <v>500004</v>
       </c>
       <c r="J45" s="1">
@@ -2888,7 +2987,7 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>6</v>
       </c>
       <c r="C46" s="1">
@@ -2909,7 +3008,7 @@
       <c r="H46" s="1">
         <v>44</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I46" s="7">
         <v>500004</v>
       </c>
       <c r="J46" s="1">
@@ -2920,7 +3019,7 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>6</v>
       </c>
       <c r="C47" s="1">
@@ -2935,13 +3034,13 @@
       <c r="F47" s="1">
         <v>0</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="7">
         <v>3</v>
       </c>
       <c r="H47" s="1">
         <v>45</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I47" s="7">
         <v>500004</v>
       </c>
       <c r="J47" s="1">
@@ -2952,7 +3051,7 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="8">
         <v>0</v>
       </c>
       <c r="C48" s="1">
@@ -2973,7 +3072,7 @@
       <c r="H48" s="1">
         <v>46</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I48" s="7">
         <v>500008</v>
       </c>
       <c r="J48" s="1">
@@ -2984,7 +3083,7 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="10">
         <v>2</v>
       </c>
       <c r="C49" s="1">
@@ -3016,7 +3115,7 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="11">
         <v>0</v>
       </c>
       <c r="C50" s="1">
@@ -3037,7 +3136,7 @@
       <c r="H50" s="1">
         <v>48</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I50" s="7">
         <v>500003</v>
       </c>
       <c r="J50" s="1">
@@ -3048,7 +3147,7 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <v>0</v>
       </c>
       <c r="C51" s="1">
@@ -3069,7 +3168,7 @@
       <c r="H51" s="1">
         <v>49</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="7">
         <v>500003</v>
       </c>
       <c r="J51" s="1">
@@ -3080,7 +3179,7 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="9">
         <v>3</v>
       </c>
       <c r="C52" s="1">
@@ -3101,7 +3200,7 @@
       <c r="H52" s="1">
         <v>50</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="7">
         <v>500003</v>
       </c>
       <c r="J52" s="1">
@@ -3112,7 +3211,7 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="9">
         <v>6</v>
       </c>
       <c r="C53" s="1">
@@ -3133,7 +3232,7 @@
       <c r="H53" s="1">
         <v>51</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I53" s="7">
         <v>500003</v>
       </c>
       <c r="J53" s="1">
@@ -3144,7 +3243,7 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="9">
         <v>6</v>
       </c>
       <c r="C54" s="1">
@@ -3165,7 +3264,7 @@
       <c r="H54" s="1">
         <v>52</v>
       </c>
-      <c r="I54" s="15">
+      <c r="I54" s="7">
         <v>500003</v>
       </c>
       <c r="J54" s="1">
@@ -3176,7 +3275,7 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="9">
         <v>6</v>
       </c>
       <c r="C55" s="1">
@@ -3197,7 +3296,7 @@
       <c r="H55" s="1">
         <v>53</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I55" s="7">
         <v>500003</v>
       </c>
       <c r="J55" s="1">
@@ -3208,13 +3307,13 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="9">
         <v>3</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="9">
         <v>0</v>
       </c>
       <c r="E56" s="1">
@@ -3229,7 +3328,7 @@
       <c r="H56" s="1">
         <v>54</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I56" s="7">
         <v>500003</v>
       </c>
       <c r="J56" s="1">
@@ -3240,7 +3339,7 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="9">
         <v>6</v>
       </c>
       <c r="C57" s="1">
@@ -3261,7 +3360,7 @@
       <c r="H57" s="1">
         <v>55</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I57" s="7">
         <v>500003</v>
       </c>
       <c r="J57" s="1">
@@ -3272,7 +3371,7 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="9">
         <v>6</v>
       </c>
       <c r="C58" s="1">
@@ -3293,7 +3392,7 @@
       <c r="H58" s="1">
         <v>56</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="7">
         <v>500003</v>
       </c>
       <c r="J58" s="1">
@@ -3304,7 +3403,7 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="9">
         <v>0</v>
       </c>
       <c r="C59" s="1">
@@ -3325,7 +3424,7 @@
       <c r="H59" s="1">
         <v>57</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I59" s="7">
         <v>500003</v>
       </c>
       <c r="J59" s="1">
@@ -3336,7 +3435,7 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="9">
         <v>3</v>
       </c>
       <c r="C60" s="1">
@@ -3357,7 +3456,7 @@
       <c r="H60" s="1">
         <v>58</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I60" s="7">
         <v>500003</v>
       </c>
       <c r="J60" s="1">
@@ -3368,7 +3467,7 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="9">
         <v>0</v>
       </c>
       <c r="C61" s="1">
@@ -3389,7 +3488,7 @@
       <c r="H61" s="1">
         <v>59</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="7">
         <v>500003</v>
       </c>
       <c r="J61" s="1">
@@ -3400,7 +3499,7 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="9">
         <v>0</v>
       </c>
       <c r="C62" s="1">
@@ -3421,7 +3520,7 @@
       <c r="H62" s="1">
         <v>60</v>
       </c>
-      <c r="I62" s="15">
+      <c r="I62" s="7">
         <v>500003</v>
       </c>
       <c r="J62" s="1">
@@ -3432,7 +3531,7 @@
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="9">
         <v>0</v>
       </c>
       <c r="C63" s="1">
@@ -3453,7 +3552,7 @@
       <c r="H63" s="1">
         <v>61</v>
       </c>
-      <c r="I63" s="15">
+      <c r="I63" s="7">
         <v>500003</v>
       </c>
       <c r="J63" s="1">
@@ -3464,7 +3563,7 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="9">
         <v>0</v>
       </c>
       <c r="C64" s="1">
@@ -3485,7 +3584,7 @@
       <c r="H64" s="1">
         <v>62</v>
       </c>
-      <c r="I64" s="15">
+      <c r="I64" s="7">
         <v>500003</v>
       </c>
       <c r="J64" s="1">
@@ -3496,7 +3595,7 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="9">
         <v>0</v>
       </c>
       <c r="C65" s="1">
@@ -3517,7 +3616,7 @@
       <c r="H65" s="1">
         <v>63</v>
       </c>
-      <c r="I65" s="15">
+      <c r="I65" s="7">
         <v>500003</v>
       </c>
       <c r="J65" s="1">
@@ -3549,7 +3648,7 @@
       <c r="H66" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I66" s="15">
+      <c r="I66" s="7">
         <v>500010</v>
       </c>
       <c r="J66" s="1">
@@ -3581,7 +3680,7 @@
       <c r="H67" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I67" s="15">
+      <c r="I67" s="7">
         <v>500010</v>
       </c>
       <c r="J67" s="1">
@@ -3613,7 +3712,7 @@
       <c r="H68" s="2">
         <v>1003</v>
       </c>
-      <c r="I68" s="15">
+      <c r="I68" s="7">
         <v>500010</v>
       </c>
       <c r="J68" s="1">
@@ -3645,7 +3744,7 @@
       <c r="H69" s="2">
         <v>1004</v>
       </c>
-      <c r="I69" s="15">
+      <c r="I69" s="7">
         <v>500010</v>
       </c>
       <c r="J69" s="1">
@@ -3677,7 +3776,7 @@
       <c r="H70" s="2">
         <v>1005</v>
       </c>
-      <c r="I70" s="15">
+      <c r="I70" s="7">
         <v>500010</v>
       </c>
       <c r="J70" s="1">
@@ -3709,7 +3808,7 @@
       <c r="H71" s="2">
         <v>1006</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I71" s="7">
         <v>500010</v>
       </c>
       <c r="J71" s="1">
@@ -3741,7 +3840,7 @@
       <c r="H72" s="2">
         <v>1007</v>
       </c>
-      <c r="I72" s="15">
+      <c r="I72" s="7">
         <v>500010</v>
       </c>
       <c r="J72" s="1">
@@ -3773,7 +3872,7 @@
       <c r="H73" s="2">
         <v>1008</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I73" s="7">
         <v>301001</v>
       </c>
       <c r="J73" s="1">
@@ -3805,7 +3904,7 @@
       <c r="H74" s="2">
         <v>1009</v>
       </c>
-      <c r="I74" s="15">
+      <c r="I74" s="7">
         <v>301001</v>
       </c>
       <c r="J74" s="1">
@@ -3837,7 +3936,7 @@
       <c r="H75" s="2">
         <v>1010</v>
       </c>
-      <c r="I75" s="15">
+      <c r="I75" s="7">
         <v>301001</v>
       </c>
       <c r="J75" s="1">
@@ -3869,7 +3968,7 @@
       <c r="H76" s="2">
         <v>1011</v>
       </c>
-      <c r="I76" s="15">
+      <c r="I76" s="7">
         <v>500010</v>
       </c>
       <c r="J76" s="1">
@@ -3901,7 +4000,7 @@
       <c r="H77" s="2">
         <v>1012</v>
       </c>
-      <c r="I77" s="15">
+      <c r="I77" s="7">
         <v>500010</v>
       </c>
       <c r="J77" s="1">
@@ -3933,7 +4032,7 @@
       <c r="H78" s="2">
         <v>1013</v>
       </c>
-      <c r="I78" s="15">
+      <c r="I78" s="7">
         <v>500010</v>
       </c>
       <c r="J78" s="1">
@@ -3965,7 +4064,7 @@
       <c r="H79" s="2">
         <v>1014</v>
       </c>
-      <c r="I79" s="15">
+      <c r="I79" s="7">
         <v>500010</v>
       </c>
       <c r="J79" s="1">
@@ -3997,7 +4096,7 @@
       <c r="H80" s="2">
         <v>1015</v>
       </c>
-      <c r="I80" s="15">
+      <c r="I80" s="7">
         <v>500010</v>
       </c>
       <c r="J80" s="1">
@@ -4029,7 +4128,7 @@
       <c r="H81" s="2">
         <v>1016</v>
       </c>
-      <c r="I81" s="15">
+      <c r="I81" s="7">
         <v>500010</v>
       </c>
       <c r="J81" s="1">
@@ -4061,7 +4160,7 @@
       <c r="H82" s="2">
         <v>1017</v>
       </c>
-      <c r="I82" s="15">
+      <c r="I82" s="7">
         <v>500010</v>
       </c>
       <c r="J82" s="1">
@@ -4093,7 +4192,7 @@
       <c r="H83" s="2">
         <v>1018</v>
       </c>
-      <c r="I83" s="15">
+      <c r="I83" s="7">
         <v>500010</v>
       </c>
       <c r="J83" s="1">

--- a/common/StoryScene_Chapter1.xlsx
+++ b/common/StoryScene_Chapter1.xlsx
@@ -495,9 +495,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,31 +512,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,26 +542,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -593,7 +571,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -602,24 +617,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,8 +631,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,7 +686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,7 +704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,7 +722,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,61 +800,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,49 +836,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,13 +854,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,6 +903,60 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -926,65 +980,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,10 +1007,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1019,16 +1019,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1037,115 +1037,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1524,8 +1524,8 @@
   <sheetPr/>
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1690,7 +1690,7 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="7">
         <v>1</v>
       </c>
       <c r="H5" s="1">
@@ -1722,7 +1722,7 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
       <c r="H6" s="1">
@@ -1754,8 +1754,8 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
-        <v>2</v>
+      <c r="G7" s="7">
+        <v>1</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
@@ -1786,7 +1786,7 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="7">
         <v>1</v>
       </c>
       <c r="H8" s="1">
@@ -1818,7 +1818,7 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="7">
         <v>1</v>
       </c>
       <c r="H9" s="1">
@@ -1850,8 +1850,8 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="1">
-        <v>2</v>
+      <c r="G10" s="7">
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <v>8</v>
@@ -1882,8 +1882,8 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="1">
-        <v>2</v>
+      <c r="G11" s="7">
+        <v>1</v>
       </c>
       <c r="H11" s="1">
         <v>9</v>
@@ -1914,8 +1914,8 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="1">
-        <v>2</v>
+      <c r="G12" s="7">
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <v>10</v>
@@ -1946,7 +1946,7 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="7">
         <v>1</v>
       </c>
       <c r="H13" s="1">
@@ -1978,7 +1978,7 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="7">
         <v>1</v>
       </c>
       <c r="H14" s="1">
@@ -2010,7 +2010,7 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="7">
         <v>1</v>
       </c>
       <c r="H15" s="1">
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
         <v>14</v>
@@ -2074,8 +2074,8 @@
       <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
-        <v>2</v>
+      <c r="G17" s="7">
+        <v>1</v>
       </c>
       <c r="H17" s="1">
         <v>15</v>
@@ -2106,7 +2106,7 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="7">
         <v>1</v>
       </c>
       <c r="H18" s="1">
@@ -2138,7 +2138,7 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="7">
         <v>1</v>
       </c>
       <c r="H19" s="1">
@@ -2170,7 +2170,7 @@
       <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="7">
         <v>1</v>
       </c>
       <c r="H20" s="1">
@@ -2202,7 +2202,7 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="7">
         <v>1</v>
       </c>
       <c r="H21" s="1">
@@ -2234,7 +2234,7 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="7">
         <v>1</v>
       </c>
       <c r="H22" s="1">
@@ -2266,8 +2266,8 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-      <c r="G23" s="1">
-        <v>3</v>
+      <c r="G23" s="7">
+        <v>1</v>
       </c>
       <c r="H23" s="1">
         <v>21</v>
@@ -2298,7 +2298,7 @@
       <c r="F24" s="1">
         <v>0</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="7">
         <v>1</v>
       </c>
       <c r="H24" s="1">
@@ -2330,7 +2330,7 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="7">
         <v>1</v>
       </c>
       <c r="H25" s="1">
@@ -2362,7 +2362,7 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="7">
         <v>1</v>
       </c>
       <c r="H26" s="1">
@@ -2394,7 +2394,7 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="7">
         <v>1</v>
       </c>
       <c r="H27" s="1">
@@ -2426,7 +2426,7 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="7">
         <v>1</v>
       </c>
       <c r="H28" s="1">
@@ -2458,7 +2458,7 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="7">
         <v>1</v>
       </c>
       <c r="H29" s="1">
@@ -2490,8 +2490,8 @@
       <c r="F30" s="1">
         <v>0</v>
       </c>
-      <c r="G30" s="1">
-        <v>2</v>
+      <c r="G30" s="7">
+        <v>1</v>
       </c>
       <c r="H30" s="1">
         <v>28</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1">
         <v>29</v>
@@ -2554,8 +2554,8 @@
       <c r="F32" s="1">
         <v>0</v>
       </c>
-      <c r="G32" s="1">
-        <v>2</v>
+      <c r="G32" s="7">
+        <v>1</v>
       </c>
       <c r="H32" s="1">
         <v>30</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1">
         <v>31</v>
@@ -2618,7 +2618,7 @@
       <c r="F34" s="1">
         <v>0</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="7">
         <v>1</v>
       </c>
       <c r="H34" s="1">
@@ -2650,7 +2650,7 @@
       <c r="F35" s="1">
         <v>0</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="7">
         <v>1</v>
       </c>
       <c r="H35" s="1">
@@ -2682,8 +2682,8 @@
       <c r="F36" s="1">
         <v>0</v>
       </c>
-      <c r="G36" s="1">
-        <v>2</v>
+      <c r="G36" s="7">
+        <v>1</v>
       </c>
       <c r="H36" s="1">
         <v>34</v>
@@ -2714,7 +2714,7 @@
       <c r="F37" s="1">
         <v>0</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="7">
         <v>1</v>
       </c>
       <c r="H37" s="1">
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H38" s="1">
         <v>36</v>
@@ -2778,8 +2778,8 @@
       <c r="F39" s="1">
         <v>0</v>
       </c>
-      <c r="G39" s="1">
-        <v>2</v>
+      <c r="G39" s="7">
+        <v>1</v>
       </c>
       <c r="H39" s="1">
         <v>37</v>
@@ -2810,8 +2810,8 @@
       <c r="F40" s="1">
         <v>0</v>
       </c>
-      <c r="G40" s="1">
-        <v>2</v>
+      <c r="G40" s="7">
+        <v>1</v>
       </c>
       <c r="H40" s="1">
         <v>38</v>
@@ -2842,8 +2842,8 @@
       <c r="F41" s="1">
         <v>0</v>
       </c>
-      <c r="G41" s="1">
-        <v>2</v>
+      <c r="G41" s="7">
+        <v>1</v>
       </c>
       <c r="H41" s="1">
         <v>39</v>
@@ -2874,8 +2874,8 @@
       <c r="F42" s="1">
         <v>0</v>
       </c>
-      <c r="G42" s="1">
-        <v>2</v>
+      <c r="G42" s="7">
+        <v>1</v>
       </c>
       <c r="H42" s="1">
         <v>40</v>
@@ -2906,8 +2906,8 @@
       <c r="F43" s="1">
         <v>0</v>
       </c>
-      <c r="G43" s="1">
-        <v>2</v>
+      <c r="G43" s="7">
+        <v>1</v>
       </c>
       <c r="H43" s="1">
         <v>41</v>
@@ -2938,8 +2938,8 @@
       <c r="F44" s="1">
         <v>0</v>
       </c>
-      <c r="G44" s="1">
-        <v>2</v>
+      <c r="G44" s="7">
+        <v>1</v>
       </c>
       <c r="H44" s="1">
         <v>42</v>
@@ -2970,8 +2970,8 @@
       <c r="F45" s="1">
         <v>0</v>
       </c>
-      <c r="G45" s="1">
-        <v>2</v>
+      <c r="G45" s="7">
+        <v>1</v>
       </c>
       <c r="H45" s="1">
         <v>43</v>
@@ -3002,8 +3002,8 @@
       <c r="F46" s="1">
         <v>0</v>
       </c>
-      <c r="G46" s="1">
-        <v>2</v>
+      <c r="G46" s="7">
+        <v>1</v>
       </c>
       <c r="H46" s="1">
         <v>44</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47" s="1">
         <v>45</v>
@@ -3066,7 +3066,7 @@
       <c r="F48" s="1">
         <v>0</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="7">
         <v>1</v>
       </c>
       <c r="H48" s="1">
@@ -3098,7 +3098,7 @@
       <c r="F49" s="1">
         <v>0</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="7">
         <v>1</v>
       </c>
       <c r="H49" s="1">
@@ -3130,7 +3130,7 @@
       <c r="F50" s="1">
         <v>0</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="7">
         <v>1</v>
       </c>
       <c r="H50" s="1">
@@ -3162,7 +3162,7 @@
       <c r="F51" s="1">
         <v>0</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="7">
         <v>1</v>
       </c>
       <c r="H51" s="1">
@@ -3194,8 +3194,8 @@
       <c r="F52" s="1">
         <v>0</v>
       </c>
-      <c r="G52" s="1">
-        <v>2</v>
+      <c r="G52" s="7">
+        <v>1</v>
       </c>
       <c r="H52" s="1">
         <v>50</v>
@@ -3226,8 +3226,8 @@
       <c r="F53" s="1">
         <v>0</v>
       </c>
-      <c r="G53" s="1">
-        <v>2</v>
+      <c r="G53" s="7">
+        <v>1</v>
       </c>
       <c r="H53" s="1">
         <v>51</v>
@@ -3258,8 +3258,8 @@
       <c r="F54" s="1">
         <v>0</v>
       </c>
-      <c r="G54" s="1">
-        <v>2</v>
+      <c r="G54" s="7">
+        <v>1</v>
       </c>
       <c r="H54" s="1">
         <v>52</v>
@@ -3290,8 +3290,8 @@
       <c r="F55" s="1">
         <v>0</v>
       </c>
-      <c r="G55" s="1">
-        <v>2</v>
+      <c r="G55" s="7">
+        <v>1</v>
       </c>
       <c r="H55" s="1">
         <v>53</v>
@@ -3322,8 +3322,8 @@
       <c r="F56" s="1">
         <v>0</v>
       </c>
-      <c r="G56" s="1">
-        <v>2</v>
+      <c r="G56" s="7">
+        <v>1</v>
       </c>
       <c r="H56" s="1">
         <v>54</v>
@@ -3354,8 +3354,8 @@
       <c r="F57" s="1">
         <v>0</v>
       </c>
-      <c r="G57" s="1">
-        <v>2</v>
+      <c r="G57" s="7">
+        <v>1</v>
       </c>
       <c r="H57" s="1">
         <v>55</v>
@@ -3386,8 +3386,8 @@
       <c r="F58" s="1">
         <v>0</v>
       </c>
-      <c r="G58" s="1">
-        <v>2</v>
+      <c r="G58" s="7">
+        <v>1</v>
       </c>
       <c r="H58" s="1">
         <v>56</v>
@@ -3418,7 +3418,7 @@
       <c r="F59" s="1">
         <v>0</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="7">
         <v>1</v>
       </c>
       <c r="H59" s="1">
@@ -3450,8 +3450,8 @@
       <c r="F60" s="1">
         <v>0</v>
       </c>
-      <c r="G60" s="1">
-        <v>2</v>
+      <c r="G60" s="7">
+        <v>1</v>
       </c>
       <c r="H60" s="1">
         <v>58</v>
@@ -3482,7 +3482,7 @@
       <c r="F61" s="1">
         <v>0</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="7">
         <v>1</v>
       </c>
       <c r="H61" s="1">
@@ -3514,7 +3514,7 @@
       <c r="F62" s="1">
         <v>0</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="7">
         <v>1</v>
       </c>
       <c r="H62" s="1">
@@ -3546,7 +3546,7 @@
       <c r="F63" s="1">
         <v>0</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="7">
         <v>1</v>
       </c>
       <c r="H63" s="1">
@@ -3578,7 +3578,7 @@
       <c r="F64" s="1">
         <v>0</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="7">
         <v>1</v>
       </c>
       <c r="H64" s="1">
@@ -3610,7 +3610,7 @@
       <c r="F65" s="1">
         <v>0</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="7">
         <v>1</v>
       </c>
       <c r="H65" s="1">
@@ -3642,7 +3642,7 @@
       <c r="F66" s="1">
         <v>0</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="7">
         <v>1</v>
       </c>
       <c r="H66" s="2" t="s">
@@ -3674,7 +3674,7 @@
       <c r="F67" s="1">
         <v>0</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="7">
         <v>1</v>
       </c>
       <c r="H67" s="2" t="s">
@@ -3706,8 +3706,8 @@
       <c r="F68" s="1">
         <v>0</v>
       </c>
-      <c r="G68" s="1">
-        <v>2</v>
+      <c r="G68" s="7">
+        <v>1</v>
       </c>
       <c r="H68" s="2">
         <v>1003</v>
@@ -3738,8 +3738,8 @@
       <c r="F69" s="1">
         <v>0</v>
       </c>
-      <c r="G69" s="1">
-        <v>2</v>
+      <c r="G69" s="7">
+        <v>1</v>
       </c>
       <c r="H69" s="2">
         <v>1004</v>
@@ -3770,8 +3770,8 @@
       <c r="F70" s="1">
         <v>0</v>
       </c>
-      <c r="G70" s="1">
-        <v>3</v>
+      <c r="G70" s="7">
+        <v>1</v>
       </c>
       <c r="H70" s="2">
         <v>1005</v>
@@ -3802,7 +3802,7 @@
       <c r="F71" s="1">
         <v>0</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71" s="7">
         <v>1</v>
       </c>
       <c r="H71" s="2">
@@ -3834,8 +3834,8 @@
       <c r="F72" s="1">
         <v>0</v>
       </c>
-      <c r="G72" s="1">
-        <v>2</v>
+      <c r="G72" s="7">
+        <v>1</v>
       </c>
       <c r="H72" s="2">
         <v>1007</v>
@@ -3866,8 +3866,8 @@
       <c r="F73" s="1">
         <v>0</v>
       </c>
-      <c r="G73" s="1">
-        <v>2</v>
+      <c r="G73" s="7">
+        <v>1</v>
       </c>
       <c r="H73" s="2">
         <v>1008</v>
@@ -3898,8 +3898,8 @@
       <c r="F74" s="1">
         <v>0</v>
       </c>
-      <c r="G74" s="1">
-        <v>2</v>
+      <c r="G74" s="7">
+        <v>1</v>
       </c>
       <c r="H74" s="2">
         <v>1009</v>
@@ -3930,8 +3930,8 @@
       <c r="F75" s="1">
         <v>0</v>
       </c>
-      <c r="G75" s="1">
-        <v>2</v>
+      <c r="G75" s="7">
+        <v>1</v>
       </c>
       <c r="H75" s="2">
         <v>1010</v>
@@ -3962,8 +3962,8 @@
       <c r="F76" s="1">
         <v>0</v>
       </c>
-      <c r="G76" s="1">
-        <v>2</v>
+      <c r="G76" s="7">
+        <v>1</v>
       </c>
       <c r="H76" s="2">
         <v>1011</v>
@@ -3994,8 +3994,8 @@
       <c r="F77" s="1">
         <v>0</v>
       </c>
-      <c r="G77" s="1">
-        <v>2</v>
+      <c r="G77" s="7">
+        <v>1</v>
       </c>
       <c r="H77" s="2">
         <v>1012</v>
@@ -4026,8 +4026,8 @@
       <c r="F78" s="1">
         <v>0</v>
       </c>
-      <c r="G78" s="1">
-        <v>2</v>
+      <c r="G78" s="7">
+        <v>1</v>
       </c>
       <c r="H78" s="2">
         <v>1013</v>
@@ -4058,8 +4058,8 @@
       <c r="F79" s="1">
         <v>0</v>
       </c>
-      <c r="G79" s="1">
-        <v>2</v>
+      <c r="G79" s="7">
+        <v>1</v>
       </c>
       <c r="H79" s="2">
         <v>1014</v>
@@ -4090,8 +4090,8 @@
       <c r="F80" s="1">
         <v>0</v>
       </c>
-      <c r="G80" s="1">
-        <v>2</v>
+      <c r="G80" s="7">
+        <v>1</v>
       </c>
       <c r="H80" s="2">
         <v>1015</v>
@@ -4122,8 +4122,8 @@
       <c r="F81" s="1">
         <v>0</v>
       </c>
-      <c r="G81" s="1">
-        <v>2</v>
+      <c r="G81" s="7">
+        <v>1</v>
       </c>
       <c r="H81" s="2">
         <v>1016</v>
@@ -4154,8 +4154,8 @@
       <c r="F82" s="1">
         <v>0</v>
       </c>
-      <c r="G82" s="1">
-        <v>2</v>
+      <c r="G82" s="7">
+        <v>1</v>
       </c>
       <c r="H82" s="2">
         <v>1017</v>
@@ -4186,8 +4186,8 @@
       <c r="F83" s="1">
         <v>0</v>
       </c>
-      <c r="G83" s="1">
-        <v>2</v>
+      <c r="G83" s="7">
+        <v>1</v>
       </c>
       <c r="H83" s="2">
         <v>1018</v>

--- a/common/StoryScene_Chapter1.xlsx
+++ b/common/StoryScene_Chapter1.xlsx
@@ -495,14 +495,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -511,40 +503,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,6 +525,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -572,7 +541,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,53 +632,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,31 +686,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,37 +734,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,43 +794,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,43 +830,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,6 +903,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -921,37 +945,27 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,31 +985,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,10 +1007,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1019,133 +1019,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1524,8 +1524,8 @@
   <sheetPr/>
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3628,7 +3628,7 @@
         <v>1001</v>
       </c>
       <c r="B66" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
@@ -3649,7 +3649,7 @@
         <v>22</v>
       </c>
       <c r="I66" s="7">
-        <v>500010</v>
+        <v>0</v>
       </c>
       <c r="J66" s="1">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         <v>1002</v>
       </c>
       <c r="B67" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>23</v>
       </c>
       <c r="I67" s="7">
-        <v>500010</v>
+        <v>0</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
